--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_20_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_20_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1673361.084608045</v>
+        <v>1669416.480416978</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28967899.29919923</v>
+        <v>28967899.29919922</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6357184.439420034</v>
+        <v>6357184.439420039</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4176294.786743914</v>
+        <v>4176294.786743915</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>408.8023366536314</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>412.2121506118664</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>414.8696264586376</v>
+        <v>414.8696264586377</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>414.0253959975104</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>391.4787486074164</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>51.59884903415727</v>
       </c>
       <c r="T11" t="n">
-        <v>203.2478138726681</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>347.0669767300296</v>
+        <v>0.4321880553584378</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>385.5798922076733</v>
       </c>
       <c r="X11" t="n">
-        <v>266.2221493835947</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>394.4363533496752</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>92.05952330586284</v>
       </c>
       <c r="H12" t="n">
-        <v>42.66570471462211</v>
+        <v>42.6657047146221</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>181.4167650299617</v>
       </c>
       <c r="C13" t="n">
-        <v>163.4052934948898</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>157.6985797936916</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>163.2956124882018</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>108.5603116754838</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>127.6565709193738</v>
       </c>
       <c r="I13" t="n">
-        <v>65.35722051197803</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>146.1909751572318</v>
+        <v>146.1909751572319</v>
       </c>
       <c r="T13" t="n">
-        <v>182.0004134860481</v>
+        <v>230.2839013857234</v>
       </c>
       <c r="U13" t="n">
         <v>270.4868747995156</v>
       </c>
       <c r="V13" t="n">
-        <v>272.046808723068</v>
+        <v>272.0468087230681</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>265.2563357942288</v>
       </c>
       <c r="X13" t="n">
         <v>233.2907135936696</v>
       </c>
       <c r="Y13" t="n">
-        <v>217.231796632172</v>
+        <v>217.2317966321721</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>415.7841786918495</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>414.8696264586376</v>
+        <v>414.8696264586377</v>
       </c>
       <c r="F14" t="n">
         <v>414.0253959975104</v>
       </c>
       <c r="G14" t="n">
-        <v>391.4787486074164</v>
+        <v>190.5140473025754</v>
       </c>
       <c r="H14" t="n">
-        <v>267.8732461771102</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>51.59884903415728</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>248.7662659798448</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>347.0669767300297</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>385.5798922076733</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>148.389857777904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1770,7 +1770,7 @@
         <v>163.4052934948898</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.8360611495137</v>
       </c>
       <c r="E16" t="n">
         <v>157.6985797936916</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>61.30398446350745</v>
+        <v>156.8634603100636</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>127.6565709193738</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>18.29060044990906</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>146.1909751572319</v>
       </c>
       <c r="T16" t="n">
         <v>230.2839013857234</v>
       </c>
       <c r="U16" t="n">
-        <v>270.4868747995156</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>272.046808723068</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>265.2563357942288</v>
@@ -1833,7 +1833,7 @@
         <v>233.2907135936696</v>
       </c>
       <c r="Y16" t="n">
-        <v>217.231796632172</v>
+        <v>217.2317966321721</v>
       </c>
     </row>
     <row r="17">
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>414.8696264586376</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>391.4787486074164</v>
       </c>
       <c r="H17" t="n">
         <v>267.8732461771102</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>51.59884903415727</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.2478138726681</v>
       </c>
       <c r="U17" t="n">
-        <v>206.0717708038542</v>
+        <v>248.7662659798448</v>
       </c>
       <c r="V17" t="n">
-        <v>347.0669767300296</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>400.7552548489468</v>
+        <v>400.7552548489469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>72.91669649843533</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>92.05952330586284</v>
       </c>
       <c r="H18" t="n">
-        <v>42.66570471462211</v>
+        <v>42.6657047146221</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.4167650299617</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>163.4052934948898</v>
+        <v>116.008979064412</v>
       </c>
       <c r="D19" t="n">
-        <v>61.00403876376383</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>157.6985797936916</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>163.2956124882018</v>
+        <v>163.2956124882019</v>
       </c>
       <c r="G19" t="n">
-        <v>156.8634603100635</v>
+        <v>156.8634603100636</v>
       </c>
       <c r="H19" t="n">
-        <v>127.6565709193737</v>
+        <v>127.6565709193738</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>230.2839013857234</v>
       </c>
       <c r="U19" t="n">
         <v>270.4868747995156</v>
       </c>
       <c r="V19" t="n">
-        <v>272.046808723068</v>
+        <v>272.0468087230681</v>
       </c>
       <c r="W19" t="n">
         <v>265.2563357942288</v>
@@ -2070,7 +2070,7 @@
         <v>233.2907135936696</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>217.2317966321721</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>408.8023366536314</v>
       </c>
       <c r="C20" t="n">
-        <v>415.7841786918495</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>412.2121506118664</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>414.8696264586377</v>
       </c>
       <c r="F20" t="n">
         <v>414.0253959975104</v>
       </c>
       <c r="G20" t="n">
-        <v>391.4787486074164</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.8732461771102</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>151.0473336246751</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>400.7552548489469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1.75628913983614</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>92.05952330586284</v>
       </c>
       <c r="H21" t="n">
-        <v>42.66570471462211</v>
+        <v>42.6657047146221</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>181.4167650299617</v>
       </c>
       <c r="C22" t="n">
         <v>163.4052934948898</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>72.81158909996776</v>
       </c>
       <c r="E22" t="n">
-        <v>157.6985797936916</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>163.2956124882018</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>156.8634603100635</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>6.654602923695539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>146.1909751572318</v>
+        <v>146.1909751572319</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>230.2839013857234</v>
       </c>
       <c r="U22" t="n">
         <v>270.4868747995156</v>
       </c>
       <c r="V22" t="n">
-        <v>272.046808723068</v>
+        <v>272.0468087230681</v>
       </c>
       <c r="W22" t="n">
         <v>265.2563357942288</v>
@@ -2307,7 +2307,7 @@
         <v>233.2907135936696</v>
       </c>
       <c r="Y22" t="n">
-        <v>217.231796632172</v>
+        <v>217.2317966321721</v>
       </c>
     </row>
     <row r="23">
@@ -2320,19 +2320,19 @@
         <v>408.8023366536314</v>
       </c>
       <c r="C23" t="n">
-        <v>415.7841786918495</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>412.2121506118664</v>
       </c>
       <c r="E23" t="n">
-        <v>414.8696264586376</v>
+        <v>414.8696264586377</v>
       </c>
       <c r="F23" t="n">
         <v>414.0253959975104</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>391.4787486074164</v>
       </c>
       <c r="H23" t="n">
         <v>267.8732461771102</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>51.59884903415727</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>347.0669767300296</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>153.2620653137398</v>
       </c>
       <c r="X23" t="n">
-        <v>234.2437623823816</v>
+        <v>400.7552548489469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>92.05952330586284</v>
       </c>
       <c r="H24" t="n">
-        <v>42.66570471462211</v>
+        <v>42.6657047146221</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>134.5041149143571</v>
       </c>
       <c r="I25" t="n">
-        <v>72.20476450696138</v>
+        <v>72.20476450696137</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="S25" t="n">
         <v>153.0385191522152</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
@@ -2572,7 +2572,7 @@
         <v>398.3262926023997</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.7207901720935</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.44639302914059</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.0953578676514</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6138099748281</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>208.9862464837444</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>289.0073122919343</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>92.05952330586284</v>
       </c>
       <c r="H27" t="n">
-        <v>42.66570471462211</v>
+        <v>42.6657047146221</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>134.5041149143571</v>
       </c>
       <c r="I28" t="n">
-        <v>72.20476450696138</v>
+        <v>72.20476450696137</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="S28" t="n">
         <v>153.0385191522152</v>
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>35.20036684315767</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>341.8177067467257</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>398.3262926023997</v>
       </c>
       <c r="H29" t="n">
-        <v>274.7207901720935</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.44639302914059</v>
       </c>
       <c r="T29" t="n">
         <v>210.0953578676514</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6138099748281</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>92.05952330586284</v>
       </c>
       <c r="H30" t="n">
-        <v>42.66570471462211</v>
+        <v>42.6657047146221</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>134.5041149143571</v>
       </c>
       <c r="I31" t="n">
-        <v>72.20476450696138</v>
+        <v>72.20476450696137</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="S31" t="n">
         <v>153.0385191522152</v>
@@ -3031,22 +3031,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>355.2181467620813</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>274.7207901720935</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.44639302914061</v>
+        <v>58.44639302914059</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6138099748281</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>348.8970734415337</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>92.05952330586284</v>
       </c>
       <c r="H33" t="n">
-        <v>42.66570471462211</v>
+        <v>42.6657047146221</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>134.5041149143571</v>
       </c>
       <c r="I34" t="n">
-        <v>72.20476450696138</v>
+        <v>72.20476450696137</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="S34" t="n">
         <v>153.0385191522152</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>167.3228461657864</v>
       </c>
       <c r="G35" t="n">
         <v>398.3262926023997</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.7207901720935</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,10 +3322,10 @@
         <v>210.0953578676514</v>
       </c>
       <c r="U35" t="n">
-        <v>207.2230738972664</v>
+        <v>255.6138099748281</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -3362,7 +3362,7 @@
         <v>92.05952330586284</v>
       </c>
       <c r="H36" t="n">
-        <v>42.66570471462211</v>
+        <v>42.6657047146221</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>71.48572044053195</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.7110043050469</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.5041149143571</v>
       </c>
       <c r="I37" t="n">
-        <v>72.20476450696138</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>153.0385191522152</v>
       </c>
       <c r="T37" t="n">
         <v>237.1314453807067</v>
       </c>
       <c r="U37" t="n">
-        <v>204.805742796195</v>
+        <v>277.334418794499</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3505,10 +3505,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>316.6749749797081</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -3517,7 +3517,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.3262926023997</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.44639302914061</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>395.8547700132999</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>92.05952330586284</v>
       </c>
       <c r="H39" t="n">
-        <v>42.66570471462211</v>
+        <v>42.6657047146221</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>88.35106570312468</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7110043050469</v>
       </c>
       <c r="H40" t="n">
-        <v>10.04286285133174</v>
+        <v>134.5041149143571</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>72.20476450696137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.84754399498334</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>153.0385191522152</v>
@@ -3717,7 +3717,7 @@
         <v>237.1314453807067</v>
       </c>
       <c r="U40" t="n">
-        <v>277.334418794499</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>309.6931329414909</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3754,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>253.3936284689922</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.44639302914059</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0953578676514</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>92.05952330586284</v>
       </c>
       <c r="H42" t="n">
-        <v>42.66570471462211</v>
+        <v>42.6657047146221</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>18.68051315174646</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>114.9317695835727</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.7110043050469</v>
@@ -3918,7 +3918,7 @@
         <v>134.5041149143571</v>
       </c>
       <c r="I43" t="n">
-        <v>72.20476450696138</v>
+        <v>72.20476450696137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>153.0385191522152</v>
       </c>
       <c r="T43" t="n">
         <v>237.1314453807067</v>
       </c>
       <c r="U43" t="n">
-        <v>277.334418794499</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>266.615687785844</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>373.3264343760592</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3262926023997</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.44639302914059</v>
       </c>
       <c r="T44" t="n">
         <v>210.0953578676514</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>92.05952330586284</v>
       </c>
       <c r="H45" t="n">
-        <v>42.66570471462211</v>
+        <v>42.6657047146221</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>136.5509957048775</v>
+        <v>18.63236053404592</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7110043050469</v>
       </c>
       <c r="H46" t="n">
-        <v>134.5041149143571</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.84754399498334</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>153.0385191522152</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1314453807067</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>877.7453747714931</v>
+        <v>1275.010015168524</v>
       </c>
       <c r="C11" t="n">
-        <v>877.7453747714931</v>
+        <v>1275.010015168524</v>
       </c>
       <c r="D11" t="n">
-        <v>461.3694650625371</v>
+        <v>1275.010015168524</v>
       </c>
       <c r="E11" t="n">
-        <v>42.30923631643843</v>
+        <v>855.9497864224252</v>
       </c>
       <c r="F11" t="n">
-        <v>42.30923631643843</v>
+        <v>437.7423157178692</v>
       </c>
       <c r="G11" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="H11" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="I11" t="n">
-        <v>83.27205888092229</v>
+        <v>83.27205888092249</v>
       </c>
       <c r="J11" t="n">
-        <v>219.6234095469046</v>
+        <v>219.6234095469048</v>
       </c>
       <c r="K11" t="n">
-        <v>432.2237479688201</v>
+        <v>432.2237479688209</v>
       </c>
       <c r="L11" t="n">
-        <v>701.9698034910141</v>
+        <v>701.9698034910148</v>
       </c>
       <c r="M11" t="n">
-        <v>1007.260548344704</v>
+        <v>1007.260548344705</v>
       </c>
       <c r="N11" t="n">
-        <v>1318.240960483334</v>
+        <v>1318.240960483335</v>
       </c>
       <c r="O11" t="n">
-        <v>1609.723965346857</v>
+        <v>1609.723965346858</v>
       </c>
       <c r="P11" t="n">
-        <v>1852.891553660639</v>
+        <v>1852.89155366064</v>
       </c>
       <c r="Q11" t="n">
-        <v>2027.672214199633</v>
+        <v>2027.672214199634</v>
       </c>
       <c r="R11" t="n">
-        <v>2115.461815821921</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="S11" t="n">
-        <v>2115.461815821921</v>
+        <v>2063.34176629247</v>
       </c>
       <c r="T11" t="n">
-        <v>1910.160993728317</v>
+        <v>2063.34176629247</v>
       </c>
       <c r="U11" t="n">
-        <v>1910.160993728317</v>
+        <v>2063.34176629247</v>
       </c>
       <c r="V11" t="n">
-        <v>1559.58828996061</v>
+        <v>2062.905212701199</v>
       </c>
       <c r="W11" t="n">
-        <v>1559.58828996061</v>
+        <v>1673.43057410759</v>
       </c>
       <c r="X11" t="n">
-        <v>1290.677027956979</v>
+        <v>1673.43057410759</v>
       </c>
       <c r="Y11" t="n">
-        <v>1290.677027956979</v>
+        <v>1275.010015168524</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>85.40590774534965</v>
       </c>
       <c r="H12" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="I12" t="n">
-        <v>62.21485922915106</v>
+        <v>85.67216507356292</v>
       </c>
       <c r="J12" t="n">
-        <v>313.0712442259762</v>
+        <v>313.071244225976</v>
       </c>
       <c r="K12" t="n">
-        <v>459.3456707720391</v>
+        <v>459.3456707720388</v>
       </c>
       <c r="L12" t="n">
-        <v>663.5571015863533</v>
+        <v>663.557101586353</v>
       </c>
       <c r="M12" t="n">
-        <v>905.0077003937261</v>
+        <v>905.0077003937258</v>
       </c>
       <c r="N12" t="n">
         <v>1155.190182891659</v>
       </c>
       <c r="O12" t="n">
-        <v>1380.447560542188</v>
+        <v>1380.447560542187</v>
       </c>
       <c r="P12" t="n">
         <v>1558.094841883416</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>597.6190406485206</v>
+        <v>280.9121480284158</v>
       </c>
       <c r="C13" t="n">
-        <v>432.5631886334804</v>
+        <v>280.9121480284158</v>
       </c>
       <c r="D13" t="n">
-        <v>432.5631886334804</v>
+        <v>280.9121480284158</v>
       </c>
       <c r="E13" t="n">
-        <v>273.2716938923777</v>
+        <v>280.9121480284158</v>
       </c>
       <c r="F13" t="n">
-        <v>108.3266307729819</v>
+        <v>280.9121480284158</v>
       </c>
       <c r="G13" t="n">
-        <v>108.3266307729819</v>
+        <v>171.2552675481291</v>
       </c>
       <c r="H13" t="n">
-        <v>108.3266307729819</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="I13" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="J13" t="n">
-        <v>83.71036337888088</v>
+        <v>83.71036337888091</v>
       </c>
       <c r="K13" t="n">
-        <v>164.5635293060487</v>
+        <v>411.8461384200708</v>
       </c>
       <c r="L13" t="n">
-        <v>272.8874370486909</v>
+        <v>520.170046162713</v>
       </c>
       <c r="M13" t="n">
-        <v>528.4888191687552</v>
+        <v>1043.746845578639</v>
       </c>
       <c r="N13" t="n">
-        <v>1039.81212896267</v>
+        <v>1555.070155372553</v>
       </c>
       <c r="O13" t="n">
-        <v>1518.855585247446</v>
+        <v>1670.229082625346</v>
       </c>
       <c r="P13" t="n">
-        <v>1915.229065143176</v>
+        <v>2066.602562521075</v>
       </c>
       <c r="Q13" t="n">
-        <v>2115.461815821921</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="R13" t="n">
-        <v>2115.461815821921</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="S13" t="n">
-        <v>1967.79416414795</v>
+        <v>1967.794164147951</v>
       </c>
       <c r="T13" t="n">
-        <v>1783.955362646891</v>
+        <v>1735.18416274823</v>
       </c>
       <c r="U13" t="n">
-        <v>1510.736297192835</v>
+        <v>1461.965097294174</v>
       </c>
       <c r="V13" t="n">
-        <v>1235.941540906908</v>
+        <v>1187.170341008246</v>
       </c>
       <c r="W13" t="n">
-        <v>1235.941540906908</v>
+        <v>919.2346482868029</v>
       </c>
       <c r="X13" t="n">
-        <v>1000.294355458757</v>
+        <v>683.5874628386518</v>
       </c>
       <c r="Y13" t="n">
-        <v>780.8682982545424</v>
+        <v>464.1614056344376</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1965.573070591715</v>
+        <v>1072.015367385856</v>
       </c>
       <c r="C14" t="n">
-        <v>1545.589051711059</v>
+        <v>1072.015367385856</v>
       </c>
       <c r="D14" t="n">
-        <v>1545.589051711059</v>
+        <v>1072.015367385856</v>
       </c>
       <c r="E14" t="n">
-        <v>1126.528822964961</v>
+        <v>652.9551386397576</v>
       </c>
       <c r="F14" t="n">
-        <v>708.3213522604048</v>
+        <v>234.7476679352015</v>
       </c>
       <c r="G14" t="n">
-        <v>312.888272858974</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="H14" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="I14" t="n">
-        <v>83.27205888092223</v>
+        <v>83.27205888092249</v>
       </c>
       <c r="J14" t="n">
-        <v>219.6234095469045</v>
+        <v>219.6234095469047</v>
       </c>
       <c r="K14" t="n">
         <v>432.2237479688208</v>
       </c>
       <c r="L14" t="n">
-        <v>701.9698034910147</v>
+        <v>701.9698034910148</v>
       </c>
       <c r="M14" t="n">
-        <v>1007.260548344704</v>
+        <v>1007.260548344705</v>
       </c>
       <c r="N14" t="n">
         <v>1318.240960483335</v>
@@ -5299,31 +5299,31 @@
         <v>1852.891553660639</v>
       </c>
       <c r="Q14" t="n">
-        <v>2027.672214199633</v>
+        <v>2027.672214199634</v>
       </c>
       <c r="R14" t="n">
-        <v>2115.461815821921</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="S14" t="n">
-        <v>2115.461815821921</v>
+        <v>2063.34176629247</v>
       </c>
       <c r="T14" t="n">
-        <v>2115.461815821921</v>
+        <v>2063.34176629247</v>
       </c>
       <c r="U14" t="n">
-        <v>2115.461815821921</v>
+        <v>1812.062709747172</v>
       </c>
       <c r="V14" t="n">
-        <v>2115.461815821921</v>
+        <v>1461.490005979466</v>
       </c>
       <c r="W14" t="n">
-        <v>2115.461815821921</v>
+        <v>1072.015367385856</v>
       </c>
       <c r="X14" t="n">
-        <v>2115.461815821921</v>
+        <v>1072.015367385856</v>
       </c>
       <c r="Y14" t="n">
-        <v>1965.573070591715</v>
+        <v>1072.015367385856</v>
       </c>
     </row>
     <row r="15">
@@ -5348,28 +5348,28 @@
         <v>178.3953252260192</v>
       </c>
       <c r="G15" t="n">
-        <v>85.40590774534965</v>
+        <v>85.40590774534967</v>
       </c>
       <c r="H15" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="I15" t="n">
-        <v>62.21485922915105</v>
+        <v>85.67216507356292</v>
       </c>
       <c r="J15" t="n">
-        <v>140.3668894550332</v>
+        <v>313.0712442259762</v>
       </c>
       <c r="K15" t="n">
-        <v>286.641316001096</v>
+        <v>459.3456707720391</v>
       </c>
       <c r="L15" t="n">
-        <v>490.8527468154102</v>
+        <v>663.5571015863533</v>
       </c>
       <c r="M15" t="n">
-        <v>732.3033456227829</v>
+        <v>905.0077003937261</v>
       </c>
       <c r="N15" t="n">
-        <v>982.485828120716</v>
+        <v>1155.190182891659</v>
       </c>
       <c r="O15" t="n">
         <v>1380.447560542188</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>428.5797997023868</v>
+        <v>828.9259697683996</v>
       </c>
       <c r="C16" t="n">
-        <v>263.5239476873466</v>
+        <v>663.8701177533594</v>
       </c>
       <c r="D16" t="n">
-        <v>263.5239476873466</v>
+        <v>507.4700559861739</v>
       </c>
       <c r="E16" t="n">
-        <v>104.2324529462439</v>
+        <v>348.1785612450712</v>
       </c>
       <c r="F16" t="n">
-        <v>104.2324529462439</v>
+        <v>348.1785612450712</v>
       </c>
       <c r="G16" t="n">
-        <v>42.30923631643843</v>
+        <v>189.7306215379363</v>
       </c>
       <c r="H16" t="n">
-        <v>42.30923631643843</v>
+        <v>60.78459030624558</v>
       </c>
       <c r="I16" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="J16" t="n">
-        <v>83.71036337888088</v>
+        <v>83.71036337888091</v>
       </c>
       <c r="K16" t="n">
         <v>164.5635293060487</v>
       </c>
       <c r="L16" t="n">
-        <v>272.8874370486909</v>
+        <v>469.0417217040371</v>
       </c>
       <c r="M16" t="n">
-        <v>796.4642364646163</v>
+        <v>992.6185211199628</v>
       </c>
       <c r="N16" t="n">
-        <v>1307.787546258531</v>
+        <v>1503.941830913878</v>
       </c>
       <c r="O16" t="n">
-        <v>1786.831002543307</v>
+        <v>1982.985287198653</v>
       </c>
       <c r="P16" t="n">
         <v>2066.602562521075</v>
       </c>
       <c r="Q16" t="n">
-        <v>2115.461815821921</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="R16" t="n">
-        <v>2115.461815821921</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="S16" t="n">
-        <v>2115.461815821921</v>
+        <v>1967.794164147951</v>
       </c>
       <c r="T16" t="n">
-        <v>1882.851814422201</v>
+        <v>1735.18416274823</v>
       </c>
       <c r="U16" t="n">
-        <v>1609.632748968145</v>
+        <v>1735.18416274823</v>
       </c>
       <c r="V16" t="n">
-        <v>1334.837992682217</v>
+        <v>1735.18416274823</v>
       </c>
       <c r="W16" t="n">
-        <v>1066.902299960774</v>
+        <v>1467.248470026787</v>
       </c>
       <c r="X16" t="n">
-        <v>831.2551145126229</v>
+        <v>1231.601284578636</v>
       </c>
       <c r="Y16" t="n">
-        <v>611.8290573084087</v>
+        <v>1012.175227374421</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1151.932520485729</v>
+        <v>1128.305371141061</v>
       </c>
       <c r="C17" t="n">
-        <v>731.9485016050726</v>
+        <v>708.3213522604048</v>
       </c>
       <c r="D17" t="n">
-        <v>731.9485016050726</v>
+        <v>708.3213522604048</v>
       </c>
       <c r="E17" t="n">
-        <v>312.888272858974</v>
+        <v>708.3213522604048</v>
       </c>
       <c r="F17" t="n">
-        <v>312.888272858974</v>
+        <v>708.3213522604048</v>
       </c>
       <c r="G17" t="n">
         <v>312.888272858974</v>
       </c>
       <c r="H17" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="I17" t="n">
         <v>83.27205888092203</v>
       </c>
       <c r="J17" t="n">
-        <v>219.6234095469042</v>
+        <v>219.6234095469044</v>
       </c>
       <c r="K17" t="n">
-        <v>432.2237479688205</v>
+        <v>432.2237479688204</v>
       </c>
       <c r="L17" t="n">
-        <v>701.9698034910143</v>
+        <v>701.9698034910142</v>
       </c>
       <c r="M17" t="n">
         <v>1007.260548344704</v>
@@ -5536,31 +5536,31 @@
         <v>1852.891553660639</v>
       </c>
       <c r="Q17" t="n">
-        <v>2027.672214199633</v>
+        <v>2027.672214199634</v>
       </c>
       <c r="R17" t="n">
-        <v>2115.461815821921</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="S17" t="n">
-        <v>2115.461815821921</v>
+        <v>2063.34176629247</v>
       </c>
       <c r="T17" t="n">
-        <v>2115.461815821921</v>
+        <v>1858.040944198866</v>
       </c>
       <c r="U17" t="n">
-        <v>1907.308511979644</v>
+        <v>1606.761887653568</v>
       </c>
       <c r="V17" t="n">
-        <v>1556.735808211938</v>
+        <v>1606.761887653568</v>
       </c>
       <c r="W17" t="n">
-        <v>1556.735808211938</v>
+        <v>1606.761887653568</v>
       </c>
       <c r="X17" t="n">
-        <v>1151.932520485729</v>
+        <v>1201.958599927359</v>
       </c>
       <c r="Y17" t="n">
-        <v>1151.932520485729</v>
+        <v>1128.305371141061</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>85.40590774534965</v>
       </c>
       <c r="H18" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="I18" t="n">
-        <v>62.21485922915105</v>
+        <v>85.67216507356292</v>
       </c>
       <c r="J18" t="n">
-        <v>140.3668894550332</v>
+        <v>313.071244225976</v>
       </c>
       <c r="K18" t="n">
-        <v>286.641316001096</v>
+        <v>459.3456707720388</v>
       </c>
       <c r="L18" t="n">
-        <v>490.8527468154102</v>
+        <v>663.557101586353</v>
       </c>
       <c r="M18" t="n">
-        <v>732.3033456227829</v>
+        <v>905.0077003937258</v>
       </c>
       <c r="N18" t="n">
-        <v>982.485828120716</v>
+        <v>1155.190182891659</v>
       </c>
       <c r="O18" t="n">
-        <v>1485.903060827093</v>
+        <v>1380.447560542187</v>
       </c>
       <c r="P18" t="n">
-        <v>1663.550342168322</v>
+        <v>1558.094841883416</v>
       </c>
       <c r="Q18" t="n">
-        <v>1774.190975763363</v>
+        <v>1668.735475478457</v>
       </c>
       <c r="R18" t="n">
         <v>1815.523058393355</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>880.6158583063217</v>
+        <v>611.8290573084093</v>
       </c>
       <c r="C19" t="n">
-        <v>715.5600062912815</v>
+        <v>494.6482703746599</v>
       </c>
       <c r="D19" t="n">
-        <v>653.9397651157625</v>
+        <v>494.6482703746599</v>
       </c>
       <c r="E19" t="n">
-        <v>494.6482703746598</v>
+        <v>494.6482703746599</v>
       </c>
       <c r="F19" t="n">
         <v>329.703207255264</v>
@@ -5667,58 +5667,58 @@
         <v>171.2552675481291</v>
       </c>
       <c r="H19" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="I19" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="J19" t="n">
-        <v>83.71036337888088</v>
+        <v>161.6320800271018</v>
       </c>
       <c r="K19" t="n">
-        <v>411.8461384200707</v>
+        <v>489.7678550682916</v>
       </c>
       <c r="L19" t="n">
-        <v>520.1700461627129</v>
+        <v>974.4806564020988</v>
       </c>
       <c r="M19" t="n">
-        <v>906.1911434719586</v>
+        <v>1089.222499973924</v>
       </c>
       <c r="N19" t="n">
-        <v>1417.514453265873</v>
+        <v>1600.545809767839</v>
       </c>
       <c r="O19" t="n">
-        <v>1518.855585247446</v>
+        <v>1982.985287198653</v>
       </c>
       <c r="P19" t="n">
-        <v>1915.229065143176</v>
+        <v>2066.602562521075</v>
       </c>
       <c r="Q19" t="n">
-        <v>2115.461815821921</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="R19" t="n">
-        <v>2115.461815821921</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="S19" t="n">
-        <v>2115.461815821921</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="T19" t="n">
-        <v>2115.461815821921</v>
+        <v>1882.851814422202</v>
       </c>
       <c r="U19" t="n">
-        <v>1842.242750367865</v>
+        <v>1609.632748968145</v>
       </c>
       <c r="V19" t="n">
-        <v>1567.447994081938</v>
+        <v>1334.837992682218</v>
       </c>
       <c r="W19" t="n">
-        <v>1299.512301360495</v>
+        <v>1066.902299960775</v>
       </c>
       <c r="X19" t="n">
-        <v>1063.865115912344</v>
+        <v>831.2551145126235</v>
       </c>
       <c r="Y19" t="n">
-        <v>1063.865115912344</v>
+        <v>611.8290573084093</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1962.888751554573</v>
+        <v>1295.952845476049</v>
       </c>
       <c r="C20" t="n">
-        <v>1542.904732673917</v>
+        <v>1295.952845476049</v>
       </c>
       <c r="D20" t="n">
-        <v>1126.528822964961</v>
+        <v>879.5769357670931</v>
       </c>
       <c r="E20" t="n">
-        <v>1126.528822964961</v>
+        <v>460.5167070209945</v>
       </c>
       <c r="F20" t="n">
-        <v>708.3213522604048</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="G20" t="n">
-        <v>312.888272858974</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="H20" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="I20" t="n">
-        <v>83.27205888092226</v>
+        <v>83.2720588809223</v>
       </c>
       <c r="J20" t="n">
-        <v>219.6234095469045</v>
+        <v>219.6234095469046</v>
       </c>
       <c r="K20" t="n">
-        <v>432.2237479688206</v>
+        <v>432.2237479688207</v>
       </c>
       <c r="L20" t="n">
-        <v>701.9698034910143</v>
+        <v>701.9698034910145</v>
       </c>
       <c r="M20" t="n">
-        <v>1007.260548344704</v>
+        <v>1007.260548344705</v>
       </c>
       <c r="N20" t="n">
-        <v>1318.240960483334</v>
+        <v>1318.240960483335</v>
       </c>
       <c r="O20" t="n">
-        <v>1609.723965346857</v>
+        <v>1609.723965346858</v>
       </c>
       <c r="P20" t="n">
         <v>1852.891553660639</v>
       </c>
       <c r="Q20" t="n">
-        <v>2027.672214199633</v>
+        <v>2027.672214199634</v>
       </c>
       <c r="R20" t="n">
-        <v>2115.461815821921</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="S20" t="n">
-        <v>2115.461815821921</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="T20" t="n">
-        <v>1962.888751554573</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="U20" t="n">
-        <v>1962.888751554573</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="V20" t="n">
-        <v>1962.888751554573</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="W20" t="n">
-        <v>1962.888751554573</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="X20" t="n">
-        <v>1962.888751554573</v>
+        <v>1710.658528095713</v>
       </c>
       <c r="Y20" t="n">
-        <v>1962.888751554573</v>
+        <v>1708.884498661535</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>85.40590774534965</v>
       </c>
       <c r="H21" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="I21" t="n">
-        <v>85.67216507356289</v>
+        <v>85.67216507356292</v>
       </c>
       <c r="J21" t="n">
-        <v>163.8241952994451</v>
+        <v>313.071244225976</v>
       </c>
       <c r="K21" t="n">
-        <v>310.0986218455079</v>
+        <v>459.3456707720388</v>
       </c>
       <c r="L21" t="n">
-        <v>514.3100526598221</v>
+        <v>663.557101586353</v>
       </c>
       <c r="M21" t="n">
-        <v>755.7606514671947</v>
+        <v>905.0077003937258</v>
       </c>
       <c r="N21" t="n">
-        <v>1005.943133965128</v>
+        <v>1155.190182891659</v>
       </c>
       <c r="O21" t="n">
-        <v>1485.903060827093</v>
+        <v>1380.447560542187</v>
       </c>
       <c r="P21" t="n">
-        <v>1663.550342168322</v>
+        <v>1558.094841883416</v>
       </c>
       <c r="Q21" t="n">
-        <v>1774.190975763363</v>
+        <v>1668.735475478457</v>
       </c>
       <c r="R21" t="n">
         <v>1815.523058393355</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7714070341581</v>
+        <v>280.9121480284158</v>
       </c>
       <c r="C22" t="n">
-        <v>531.7155550191178</v>
+        <v>115.8562960133756</v>
       </c>
       <c r="D22" t="n">
-        <v>531.7155550191178</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="E22" t="n">
-        <v>372.4240602780151</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="F22" t="n">
-        <v>207.4789971586193</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="G22" t="n">
-        <v>49.03105745148443</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="H22" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="I22" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="J22" t="n">
-        <v>83.71036337888088</v>
+        <v>161.6320800271018</v>
       </c>
       <c r="K22" t="n">
-        <v>411.8461384200707</v>
+        <v>489.7678550682916</v>
       </c>
       <c r="L22" t="n">
-        <v>896.5589397538779</v>
+        <v>867.0746445459172</v>
       </c>
       <c r="M22" t="n">
-        <v>1390.651443961842</v>
+        <v>1390.651443961843</v>
       </c>
       <c r="N22" t="n">
-        <v>1503.941830913877</v>
+        <v>1503.941830913878</v>
       </c>
       <c r="O22" t="n">
-        <v>1982.985287198652</v>
+        <v>1982.985287198653</v>
       </c>
       <c r="P22" t="n">
         <v>2066.602562521075</v>
       </c>
       <c r="Q22" t="n">
-        <v>2115.461815821921</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="R22" t="n">
-        <v>2115.461815821921</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="S22" t="n">
-        <v>1967.79416414795</v>
+        <v>1967.794164147951</v>
       </c>
       <c r="T22" t="n">
-        <v>1967.79416414795</v>
+        <v>1735.18416274823</v>
       </c>
       <c r="U22" t="n">
-        <v>1694.575098693894</v>
+        <v>1461.965097294174</v>
       </c>
       <c r="V22" t="n">
-        <v>1419.780342407967</v>
+        <v>1187.170341008246</v>
       </c>
       <c r="W22" t="n">
-        <v>1151.844649686523</v>
+        <v>919.2346482868029</v>
       </c>
       <c r="X22" t="n">
-        <v>916.1974642383723</v>
+        <v>683.5874628386518</v>
       </c>
       <c r="Y22" t="n">
-        <v>696.7714070341581</v>
+        <v>464.1614056344376</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2004.29484585889</v>
+        <v>1979.743906379665</v>
       </c>
       <c r="C23" t="n">
-        <v>1584.310826978234</v>
+        <v>1979.743906379665</v>
       </c>
       <c r="D23" t="n">
-        <v>1167.934917269278</v>
+        <v>1563.367996670709</v>
       </c>
       <c r="E23" t="n">
-        <v>748.8746885231792</v>
+        <v>1144.30776792461</v>
       </c>
       <c r="F23" t="n">
-        <v>330.6672178186233</v>
+        <v>726.100297220054</v>
       </c>
       <c r="G23" t="n">
         <v>330.6672178186233</v>
@@ -5989,52 +5989,52 @@
         <v>101.0510038405716</v>
       </c>
       <c r="J23" t="n">
-        <v>237.6593279385188</v>
+        <v>629.1315732141801</v>
       </c>
       <c r="K23" t="n">
-        <v>450.2596663604349</v>
+        <v>841.7319116360962</v>
       </c>
       <c r="L23" t="n">
-        <v>720.0057218826287</v>
+        <v>1111.47796715829</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.596965174215</v>
+        <v>1416.76871201198</v>
       </c>
       <c r="N23" t="n">
-        <v>2207.1882084658</v>
+        <v>1727.74912415061</v>
       </c>
       <c r="O23" t="n">
-        <v>2498.671213329324</v>
+        <v>2019.232129014134</v>
       </c>
       <c r="P23" t="n">
-        <v>2741.838801643105</v>
+        <v>2262.399717327915</v>
       </c>
       <c r="Q23" t="n">
-        <v>2916.619462182099</v>
+        <v>2764.380803904348</v>
       </c>
       <c r="R23" t="n">
         <v>3004.409063804388</v>
       </c>
       <c r="S23" t="n">
-        <v>3004.409063804388</v>
+        <v>2952.289014274936</v>
       </c>
       <c r="T23" t="n">
-        <v>3004.409063804388</v>
+        <v>2952.289014274936</v>
       </c>
       <c r="U23" t="n">
-        <v>3004.409063804388</v>
+        <v>2952.289014274936</v>
       </c>
       <c r="V23" t="n">
-        <v>2653.836360036681</v>
+        <v>2952.289014274936</v>
       </c>
       <c r="W23" t="n">
-        <v>2653.836360036681</v>
+        <v>2797.47884729136</v>
       </c>
       <c r="X23" t="n">
-        <v>2417.226499044376</v>
+        <v>2392.675559565151</v>
       </c>
       <c r="Y23" t="n">
-        <v>2417.226499044376</v>
+        <v>2392.675559565151</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>60.08818127608775</v>
       </c>
       <c r="I24" t="n">
-        <v>79.99380418880037</v>
+        <v>103.4511100332122</v>
       </c>
       <c r="J24" t="n">
-        <v>158.1458344146826</v>
+        <v>330.8501891856254</v>
       </c>
       <c r="K24" t="n">
-        <v>304.4202609607454</v>
+        <v>477.1246157316882</v>
       </c>
       <c r="L24" t="n">
-        <v>508.6316917750596</v>
+        <v>681.3360465460024</v>
       </c>
       <c r="M24" t="n">
-        <v>750.0822905824323</v>
+        <v>922.7866453533752</v>
       </c>
       <c r="N24" t="n">
-        <v>1278.424628136214</v>
+        <v>1172.969127851308</v>
       </c>
       <c r="O24" t="n">
-        <v>1503.682005786743</v>
+        <v>1398.226505501837</v>
       </c>
       <c r="P24" t="n">
-        <v>1681.329287127971</v>
+        <v>1575.873786843065</v>
       </c>
       <c r="Q24" t="n">
-        <v>1791.969920723012</v>
+        <v>1686.514420438106</v>
       </c>
       <c r="R24" t="n">
         <v>1833.302003353004</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1107.608996056488</v>
+        <v>1107.608996056487</v>
       </c>
       <c r="C25" t="n">
-        <v>935.6364329354036</v>
+        <v>935.6364329354031</v>
       </c>
       <c r="D25" t="n">
-        <v>772.3196600621743</v>
+        <v>772.3196600621739</v>
       </c>
       <c r="E25" t="n">
-        <v>606.1114542150278</v>
+        <v>606.1114542150274</v>
       </c>
       <c r="F25" t="n">
-        <v>434.2496799895883</v>
+        <v>434.2496799895879</v>
       </c>
       <c r="G25" t="n">
-        <v>268.8850291764097</v>
+        <v>268.8850291764094</v>
       </c>
       <c r="H25" t="n">
         <v>133.022286838675</v>
@@ -6165,7 +6165,7 @@
         <v>2510.903691475086</v>
       </c>
       <c r="P25" t="n">
-        <v>2907.277171370816</v>
+        <v>2804.176313125642</v>
       </c>
       <c r="Q25" t="n">
         <v>3004.409063804388</v>
@@ -6174,7 +6174,7 @@
         <v>2997.492352698344</v>
       </c>
       <c r="S25" t="n">
-        <v>2842.907989918329</v>
+        <v>2842.907989918328</v>
       </c>
       <c r="T25" t="n">
         <v>2603.381277412564</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1313.539093446304</v>
+        <v>2441.228191896583</v>
       </c>
       <c r="C26" t="n">
-        <v>1313.539093446304</v>
+        <v>2014.327461909883</v>
       </c>
       <c r="D26" t="n">
-        <v>1313.539093446304</v>
+        <v>1591.034841094884</v>
       </c>
       <c r="E26" t="n">
-        <v>887.5621535941621</v>
+        <v>1165.057901242741</v>
       </c>
       <c r="F26" t="n">
-        <v>462.4379717835623</v>
+        <v>739.9337194321415</v>
       </c>
       <c r="G26" t="n">
-        <v>60.08818127608775</v>
+        <v>337.5839289246671</v>
       </c>
       <c r="H26" t="n">
         <v>60.08818127608775</v>
@@ -6226,52 +6226,52 @@
         <v>101.0510038405716</v>
       </c>
       <c r="J26" t="n">
-        <v>629.13157321418</v>
+        <v>629.1315732141801</v>
       </c>
       <c r="K26" t="n">
-        <v>841.7319116360961</v>
+        <v>1321.170995951286</v>
       </c>
       <c r="L26" t="n">
-        <v>1111.47796715829</v>
+        <v>1590.91705147348</v>
       </c>
       <c r="M26" t="n">
-        <v>1416.76871201198</v>
+        <v>1896.20779632717</v>
       </c>
       <c r="N26" t="n">
-        <v>1727.74912415061</v>
+        <v>2207.1882084658</v>
       </c>
       <c r="O26" t="n">
-        <v>2019.232129014133</v>
+        <v>2498.671213329324</v>
       </c>
       <c r="P26" t="n">
-        <v>2262.399717327914</v>
+        <v>2741.838801643105</v>
       </c>
       <c r="Q26" t="n">
-        <v>2764.380803904348</v>
+        <v>2916.619462182099</v>
       </c>
       <c r="R26" t="n">
         <v>3004.409063804388</v>
       </c>
       <c r="S26" t="n">
-        <v>3004.409063804388</v>
+        <v>2945.372303168892</v>
       </c>
       <c r="T26" t="n">
-        <v>3004.409063804388</v>
+        <v>2733.154769969244</v>
       </c>
       <c r="U26" t="n">
-        <v>2746.213296153046</v>
+        <v>2733.154769969244</v>
       </c>
       <c r="V26" t="n">
-        <v>2746.213296153046</v>
+        <v>2733.154769969244</v>
       </c>
       <c r="W26" t="n">
-        <v>2349.821946453393</v>
+        <v>2733.154769969244</v>
       </c>
       <c r="X26" t="n">
-        <v>2138.724727782944</v>
+        <v>2733.154769969244</v>
       </c>
       <c r="Y26" t="n">
-        <v>1733.387457737834</v>
+        <v>2441.228191896583</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>60.08818127608775</v>
       </c>
       <c r="I27" t="n">
-        <v>79.99380418880037</v>
+        <v>103.4511100332122</v>
       </c>
       <c r="J27" t="n">
-        <v>158.1458344146826</v>
+        <v>330.8501891856254</v>
       </c>
       <c r="K27" t="n">
-        <v>304.4202609607454</v>
+        <v>477.1246157316882</v>
       </c>
       <c r="L27" t="n">
-        <v>508.6316917750596</v>
+        <v>681.3360465460024</v>
       </c>
       <c r="M27" t="n">
-        <v>750.0822905824323</v>
+        <v>922.7866453533752</v>
       </c>
       <c r="N27" t="n">
-        <v>1000.264773080365</v>
+        <v>1172.969127851308</v>
       </c>
       <c r="O27" t="n">
-        <v>1225.522150730894</v>
+        <v>1398.226505501837</v>
       </c>
       <c r="P27" t="n">
-        <v>1681.329287127971</v>
+        <v>1575.873786843065</v>
       </c>
       <c r="Q27" t="n">
-        <v>1791.969920723012</v>
+        <v>1686.514420438106</v>
       </c>
       <c r="R27" t="n">
         <v>1833.302003353004</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1107.608996056487</v>
+        <v>1107.608996056488</v>
       </c>
       <c r="C28" t="n">
-        <v>935.6364329354031</v>
+        <v>935.6364329354035</v>
       </c>
       <c r="D28" t="n">
-        <v>772.3196600621739</v>
+        <v>772.3196600621742</v>
       </c>
       <c r="E28" t="n">
-        <v>606.1114542150274</v>
+        <v>606.1114542150277</v>
       </c>
       <c r="F28" t="n">
-        <v>434.2496799895879</v>
+        <v>434.2496799895881</v>
       </c>
       <c r="G28" t="n">
-        <v>268.8850291764093</v>
+        <v>268.8850291764094</v>
       </c>
       <c r="H28" t="n">
         <v>133.022286838675</v>
@@ -6387,7 +6387,7 @@
         <v>179.4110249867511</v>
       </c>
       <c r="K28" t="n">
-        <v>404.445941782767</v>
+        <v>507.5468000279409</v>
       </c>
       <c r="L28" t="n">
         <v>889.1587431165741</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1626.590767199083</v>
+        <v>1657.90173344054</v>
       </c>
       <c r="C29" t="n">
-        <v>1626.590767199083</v>
+        <v>1231.00100345384</v>
       </c>
       <c r="D29" t="n">
-        <v>1591.034841094884</v>
+        <v>807.7083826388407</v>
       </c>
       <c r="E29" t="n">
-        <v>1165.057901242741</v>
+        <v>462.4379717835623</v>
       </c>
       <c r="F29" t="n">
-        <v>739.9337194321415</v>
+        <v>462.4379717835623</v>
       </c>
       <c r="G29" t="n">
-        <v>337.5839289246671</v>
+        <v>60.08818127608775</v>
       </c>
       <c r="H29" t="n">
         <v>60.08818127608775</v>
@@ -6463,52 +6463,52 @@
         <v>101.0510038405716</v>
       </c>
       <c r="J29" t="n">
-        <v>237.4023545065538</v>
+        <v>455.9083442738144</v>
       </c>
       <c r="K29" t="n">
-        <v>450.0026929284699</v>
+        <v>668.5086826957305</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.593936220056</v>
+        <v>938.2547382179243</v>
       </c>
       <c r="M29" t="n">
-        <v>1498.884681073746</v>
+        <v>1243.545483071614</v>
       </c>
       <c r="N29" t="n">
-        <v>1809.865093212376</v>
+        <v>1554.525895210245</v>
       </c>
       <c r="O29" t="n">
-        <v>2498.671213329324</v>
+        <v>1846.008900073768</v>
       </c>
       <c r="P29" t="n">
-        <v>2741.838801643105</v>
+        <v>2589.600143365354</v>
       </c>
       <c r="Q29" t="n">
-        <v>2916.619462182099</v>
+        <v>2764.380803904348</v>
       </c>
       <c r="R29" t="n">
         <v>3004.409063804388</v>
       </c>
       <c r="S29" t="n">
-        <v>3004.409063804388</v>
+        <v>2945.372303168892</v>
       </c>
       <c r="T29" t="n">
-        <v>2792.19153060474</v>
+        <v>2733.154769969244</v>
       </c>
       <c r="U29" t="n">
-        <v>2792.19153060474</v>
+        <v>2474.959002317903</v>
       </c>
       <c r="V29" t="n">
-        <v>2434.702115730989</v>
+        <v>2474.959002317903</v>
       </c>
       <c r="W29" t="n">
-        <v>2038.310766031336</v>
+        <v>2474.959002317903</v>
       </c>
       <c r="X29" t="n">
-        <v>1626.590767199083</v>
+        <v>2063.23900348565</v>
       </c>
       <c r="Y29" t="n">
-        <v>1626.590767199083</v>
+        <v>1657.90173344054</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>103.4511100332122</v>
       </c>
       <c r="J30" t="n">
-        <v>181.6031402590944</v>
+        <v>330.8501891856254</v>
       </c>
       <c r="K30" t="n">
-        <v>327.8775668051572</v>
+        <v>477.1246157316882</v>
       </c>
       <c r="L30" t="n">
-        <v>532.0889976194715</v>
+        <v>681.3360465460024</v>
       </c>
       <c r="M30" t="n">
-        <v>773.5395964268441</v>
+        <v>922.7866453533752</v>
       </c>
       <c r="N30" t="n">
-        <v>1023.722078924777</v>
+        <v>1172.969127851308</v>
       </c>
       <c r="O30" t="n">
-        <v>1503.682005786743</v>
+        <v>1398.226505501837</v>
       </c>
       <c r="P30" t="n">
-        <v>1681.329287127971</v>
+        <v>1575.873786843065</v>
       </c>
       <c r="Q30" t="n">
-        <v>1791.969920723012</v>
+        <v>1686.514420438106</v>
       </c>
       <c r="R30" t="n">
         <v>1833.302003353004</v>
@@ -6600,19 +6600,19 @@
         <v>1107.608996056488</v>
       </c>
       <c r="C31" t="n">
-        <v>935.6364329354035</v>
+        <v>935.6364329354036</v>
       </c>
       <c r="D31" t="n">
-        <v>772.3196600621742</v>
+        <v>772.3196600621743</v>
       </c>
       <c r="E31" t="n">
-        <v>606.1114542150277</v>
+        <v>606.1114542150278</v>
       </c>
       <c r="F31" t="n">
-        <v>434.2496799895882</v>
+        <v>434.2496799895883</v>
       </c>
       <c r="G31" t="n">
-        <v>268.8850291764095</v>
+        <v>268.8850291764097</v>
       </c>
       <c r="H31" t="n">
         <v>133.022286838675</v>
@@ -6624,22 +6624,22 @@
         <v>179.4110249867511</v>
       </c>
       <c r="K31" t="n">
-        <v>404.445941782767</v>
+        <v>507.5468000279409</v>
       </c>
       <c r="L31" t="n">
-        <v>889.1587431165741</v>
+        <v>992.2596013617481</v>
       </c>
       <c r="M31" t="n">
-        <v>1417.436067151221</v>
+        <v>1520.536925396395</v>
       </c>
       <c r="N31" t="n">
-        <v>1928.759376945136</v>
+        <v>2031.86023519031</v>
       </c>
       <c r="O31" t="n">
-        <v>2407.802833229912</v>
+        <v>2510.903691475086</v>
       </c>
       <c r="P31" t="n">
-        <v>2804.176313125642</v>
+        <v>2907.277171370816</v>
       </c>
       <c r="Q31" t="n">
         <v>3004.409063804388</v>
@@ -6648,7 +6648,7 @@
         <v>2997.492352698344</v>
       </c>
       <c r="S31" t="n">
-        <v>2842.907989918328</v>
+        <v>2842.907989918329</v>
       </c>
       <c r="T31" t="n">
         <v>2603.381277412564</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>696.3901377752543</v>
+        <v>1761.38265374053</v>
       </c>
       <c r="C32" t="n">
-        <v>337.5839289246671</v>
+        <v>1334.48192375383</v>
       </c>
       <c r="D32" t="n">
-        <v>337.5839289246671</v>
+        <v>911.18930293883</v>
       </c>
       <c r="E32" t="n">
-        <v>337.5839289246671</v>
+        <v>485.2123630866876</v>
       </c>
       <c r="F32" t="n">
-        <v>337.5839289246671</v>
+        <v>60.08818127608775</v>
       </c>
       <c r="G32" t="n">
-        <v>337.5839289246671</v>
+        <v>60.08818127608775</v>
       </c>
       <c r="H32" t="n">
         <v>60.08818127608775</v>
@@ -6700,25 +6700,25 @@
         <v>101.0510038405716</v>
       </c>
       <c r="J32" t="n">
-        <v>464.4830918888841</v>
+        <v>482.4868114822268</v>
       </c>
       <c r="K32" t="n">
-        <v>677.0834303108002</v>
+        <v>695.087149904143</v>
       </c>
       <c r="L32" t="n">
-        <v>946.829485832994</v>
+        <v>1438.678393195729</v>
       </c>
       <c r="M32" t="n">
-        <v>1252.120230686684</v>
+        <v>1743.969138049419</v>
       </c>
       <c r="N32" t="n">
-        <v>1563.100642825314</v>
+        <v>2054.949550188049</v>
       </c>
       <c r="O32" t="n">
-        <v>1854.583647688837</v>
+        <v>2346.432555051572</v>
       </c>
       <c r="P32" t="n">
-        <v>2097.751236002618</v>
+        <v>2589.600143365354</v>
       </c>
       <c r="Q32" t="n">
         <v>2764.380803904348</v>
@@ -6733,19 +6733,19 @@
         <v>2945.372303168892</v>
       </c>
       <c r="U32" t="n">
-        <v>2687.17653551755</v>
+        <v>2945.372303168892</v>
       </c>
       <c r="V32" t="n">
-        <v>2329.6871206438</v>
+        <v>2592.951016864312</v>
       </c>
       <c r="W32" t="n">
-        <v>1933.295770944147</v>
+        <v>2592.951016864312</v>
       </c>
       <c r="X32" t="n">
-        <v>1521.575772111894</v>
+        <v>2181.23101803206</v>
       </c>
       <c r="Y32" t="n">
-        <v>1116.238502066784</v>
+        <v>2181.23101803206</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>60.08818127608775</v>
       </c>
       <c r="I33" t="n">
-        <v>79.99380418880037</v>
+        <v>103.4511100332122</v>
       </c>
       <c r="J33" t="n">
-        <v>158.1458344146826</v>
+        <v>330.8501891856254</v>
       </c>
       <c r="K33" t="n">
-        <v>304.4202609607454</v>
+        <v>477.1246157316882</v>
       </c>
       <c r="L33" t="n">
-        <v>508.6316917750596</v>
+        <v>681.3360465460024</v>
       </c>
       <c r="M33" t="n">
-        <v>750.0822905824323</v>
+        <v>922.7866453533752</v>
       </c>
       <c r="N33" t="n">
-        <v>1000.264773080365</v>
+        <v>1172.969127851308</v>
       </c>
       <c r="O33" t="n">
-        <v>1225.522150730894</v>
+        <v>1398.226505501837</v>
       </c>
       <c r="P33" t="n">
-        <v>1403.169432072122</v>
+        <v>1575.873786843065</v>
       </c>
       <c r="Q33" t="n">
-        <v>1791.969920723012</v>
+        <v>1686.514420438106</v>
       </c>
       <c r="R33" t="n">
         <v>1833.302003353004</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1107.608996056487</v>
+        <v>1107.608996056488</v>
       </c>
       <c r="C34" t="n">
-        <v>935.6364329354031</v>
+        <v>935.6364329354035</v>
       </c>
       <c r="D34" t="n">
-        <v>772.3196600621739</v>
+        <v>772.3196600621742</v>
       </c>
       <c r="E34" t="n">
-        <v>606.1114542150274</v>
+        <v>606.1114542150277</v>
       </c>
       <c r="F34" t="n">
-        <v>434.2496799895879</v>
+        <v>434.2496799895881</v>
       </c>
       <c r="G34" t="n">
         <v>268.8850291764094</v>
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1297.536696662755</v>
+        <v>891.1677503975291</v>
       </c>
       <c r="C35" t="n">
-        <v>870.6359666760554</v>
+        <v>891.1677503975291</v>
       </c>
       <c r="D35" t="n">
-        <v>870.6359666760554</v>
+        <v>891.1677503975291</v>
       </c>
       <c r="E35" t="n">
-        <v>444.6590268239129</v>
+        <v>891.1677503975291</v>
       </c>
       <c r="F35" t="n">
-        <v>444.6590268239129</v>
+        <v>722.1547744724922</v>
       </c>
       <c r="G35" t="n">
-        <v>42.30923631643843</v>
+        <v>319.8049839650178</v>
       </c>
       <c r="H35" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="I35" t="n">
-        <v>83.27205888092226</v>
+        <v>83.2720588809223</v>
       </c>
       <c r="J35" t="n">
         <v>219.6234095469046</v>
       </c>
       <c r="K35" t="n">
-        <v>432.2237479688206</v>
+        <v>432.2237479688207</v>
       </c>
       <c r="L35" t="n">
-        <v>701.9698034910144</v>
+        <v>701.9698034910145</v>
       </c>
       <c r="M35" t="n">
-        <v>1007.260548344704</v>
+        <v>1007.260548344705</v>
       </c>
       <c r="N35" t="n">
-        <v>1318.240960483334</v>
+        <v>1318.240960483335</v>
       </c>
       <c r="O35" t="n">
-        <v>1609.723965346857</v>
+        <v>1609.723965346858</v>
       </c>
       <c r="P35" t="n">
         <v>1852.891553660639</v>
@@ -6961,28 +6961,28 @@
         <v>2027.672214199633</v>
       </c>
       <c r="R35" t="n">
-        <v>2115.461815821921</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="S35" t="n">
-        <v>2115.461815821921</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="T35" t="n">
-        <v>1903.244282622273</v>
+        <v>1903.244282622274</v>
       </c>
       <c r="U35" t="n">
-        <v>1693.928046362408</v>
+        <v>1645.048514970933</v>
       </c>
       <c r="V35" t="n">
-        <v>1693.928046362408</v>
+        <v>1287.559100097182</v>
       </c>
       <c r="W35" t="n">
-        <v>1297.536696662755</v>
+        <v>891.1677503975291</v>
       </c>
       <c r="X35" t="n">
-        <v>1297.536696662755</v>
+        <v>891.1677503975291</v>
       </c>
       <c r="Y35" t="n">
-        <v>1297.536696662755</v>
+        <v>891.1677503975291</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>85.40590774534965</v>
       </c>
       <c r="H36" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="I36" t="n">
-        <v>62.21485922915105</v>
+        <v>85.67216507356292</v>
       </c>
       <c r="J36" t="n">
-        <v>140.3668894550332</v>
+        <v>313.071244225976</v>
       </c>
       <c r="K36" t="n">
-        <v>286.641316001096</v>
+        <v>459.3456707720388</v>
       </c>
       <c r="L36" t="n">
-        <v>490.8527468154102</v>
+        <v>663.557101586353</v>
       </c>
       <c r="M36" t="n">
-        <v>732.3033456227829</v>
+        <v>905.0077003937258</v>
       </c>
       <c r="N36" t="n">
-        <v>982.485828120716</v>
+        <v>1155.190182891659</v>
       </c>
       <c r="O36" t="n">
-        <v>1207.743205771244</v>
+        <v>1380.447560542187</v>
       </c>
       <c r="P36" t="n">
-        <v>1385.390487112473</v>
+        <v>1558.094841883416</v>
       </c>
       <c r="Q36" t="n">
         <v>1668.735475478457</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>453.4241108472561</v>
+        <v>415.7444278921313</v>
       </c>
       <c r="C37" t="n">
-        <v>281.4515477261721</v>
+        <v>415.7444278921313</v>
       </c>
       <c r="D37" t="n">
-        <v>281.4515477261721</v>
+        <v>415.7444278921313</v>
       </c>
       <c r="E37" t="n">
-        <v>115.2433418790257</v>
+        <v>415.7444278921313</v>
       </c>
       <c r="F37" t="n">
-        <v>115.2433418790257</v>
+        <v>343.5366294673515</v>
       </c>
       <c r="G37" t="n">
-        <v>115.2433418790257</v>
+        <v>178.1719786541729</v>
       </c>
       <c r="H37" t="n">
-        <v>115.2433418790257</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="I37" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="J37" t="n">
-        <v>161.6320800271018</v>
+        <v>83.71036337888091</v>
       </c>
       <c r="K37" t="n">
-        <v>242.4852459542695</v>
+        <v>164.5635293060487</v>
       </c>
       <c r="L37" t="n">
-        <v>350.8091536969117</v>
+        <v>649.2763306398559</v>
       </c>
       <c r="M37" t="n">
-        <v>874.3859531128372</v>
+        <v>1172.853130055782</v>
       </c>
       <c r="N37" t="n">
-        <v>1385.709262906752</v>
+        <v>1684.176439849696</v>
       </c>
       <c r="O37" t="n">
-        <v>1831.611789820754</v>
+        <v>1982.985287198653</v>
       </c>
       <c r="P37" t="n">
-        <v>1915.229065143176</v>
+        <v>2066.602562521075</v>
       </c>
       <c r="Q37" t="n">
-        <v>2115.461815821921</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="R37" t="n">
-        <v>2115.461815821921</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="S37" t="n">
-        <v>2115.461815821921</v>
+        <v>1960.877453041907</v>
       </c>
       <c r="T37" t="n">
-        <v>1875.935103316157</v>
+        <v>1721.350740536142</v>
       </c>
       <c r="U37" t="n">
-        <v>1669.060615643233</v>
+        <v>1441.214963976042</v>
       </c>
       <c r="V37" t="n">
-        <v>1387.349148251262</v>
+        <v>1159.503496584071</v>
       </c>
       <c r="W37" t="n">
-        <v>1112.496744423775</v>
+        <v>884.6510927565841</v>
       </c>
       <c r="X37" t="n">
-        <v>869.9328478695797</v>
+        <v>642.0871962023892</v>
       </c>
       <c r="Y37" t="n">
-        <v>643.5900795593218</v>
+        <v>415.7444278921313</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1636.576690894896</v>
+        <v>1295.760148486655</v>
       </c>
       <c r="C38" t="n">
-        <v>1316.70297879418</v>
+        <v>1295.760148486655</v>
       </c>
       <c r="D38" t="n">
-        <v>893.4103579791806</v>
+        <v>1295.760148486655</v>
       </c>
       <c r="E38" t="n">
-        <v>467.4334181270382</v>
+        <v>869.7832086345127</v>
       </c>
       <c r="F38" t="n">
-        <v>42.30923631643843</v>
+        <v>444.6590268239129</v>
       </c>
       <c r="G38" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="H38" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="I38" t="n">
-        <v>83.27205888092158</v>
+        <v>83.2720588809223</v>
       </c>
       <c r="J38" t="n">
-        <v>219.623409546904</v>
+        <v>219.6234095469048</v>
       </c>
       <c r="K38" t="n">
-        <v>432.2237479688201</v>
+        <v>432.2237479688209</v>
       </c>
       <c r="L38" t="n">
-        <v>701.969803491014</v>
+        <v>701.9698034910148</v>
       </c>
       <c r="M38" t="n">
-        <v>1007.260548344704</v>
+        <v>1007.260548344705</v>
       </c>
       <c r="N38" t="n">
-        <v>1318.240960483334</v>
+        <v>1318.240960483335</v>
       </c>
       <c r="O38" t="n">
-        <v>1609.723965346857</v>
+        <v>1609.723965346858</v>
       </c>
       <c r="P38" t="n">
-        <v>1852.891553660638</v>
+        <v>1852.89155366064</v>
       </c>
       <c r="Q38" t="n">
-        <v>2027.672214199633</v>
+        <v>2027.672214199634</v>
       </c>
       <c r="R38" t="n">
-        <v>2115.461815821921</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="S38" t="n">
-        <v>2056.425055186426</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="T38" t="n">
-        <v>2056.425055186426</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="U38" t="n">
-        <v>2056.425055186426</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="V38" t="n">
-        <v>2056.425055186426</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="W38" t="n">
-        <v>2056.425055186426</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="X38" t="n">
-        <v>2056.425055186426</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="Y38" t="n">
-        <v>2056.425055186426</v>
+        <v>1715.608512778185</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>85.40590774534965</v>
       </c>
       <c r="H39" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="I39" t="n">
-        <v>62.21485922915105</v>
+        <v>85.67216507356292</v>
       </c>
       <c r="J39" t="n">
-        <v>418.5267445108823</v>
+        <v>313.071244225976</v>
       </c>
       <c r="K39" t="n">
-        <v>564.8011710569451</v>
+        <v>459.3456707720388</v>
       </c>
       <c r="L39" t="n">
-        <v>769.0126018712592</v>
+        <v>663.557101586353</v>
       </c>
       <c r="M39" t="n">
-        <v>1010.463200678632</v>
+        <v>905.0077003937258</v>
       </c>
       <c r="N39" t="n">
-        <v>1260.645683176565</v>
+        <v>1155.190182891659</v>
       </c>
       <c r="O39" t="n">
-        <v>1485.903060827093</v>
+        <v>1380.447560542187</v>
       </c>
       <c r="P39" t="n">
-        <v>1663.550342168322</v>
+        <v>1558.094841883416</v>
       </c>
       <c r="Q39" t="n">
-        <v>1774.190975763363</v>
+        <v>1668.735475478457</v>
       </c>
       <c r="R39" t="n">
         <v>1815.523058393355</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>218.661748074021</v>
+        <v>505.7142357401657</v>
       </c>
       <c r="C40" t="n">
-        <v>218.661748074021</v>
+        <v>505.7142357401657</v>
       </c>
       <c r="D40" t="n">
-        <v>218.661748074021</v>
+        <v>505.7142357401657</v>
       </c>
       <c r="E40" t="n">
-        <v>52.45354222687453</v>
+        <v>505.7142357401657</v>
       </c>
       <c r="F40" t="n">
-        <v>52.45354222687453</v>
+        <v>416.4707350299388</v>
       </c>
       <c r="G40" t="n">
-        <v>52.45354222687453</v>
+        <v>251.1060842167601</v>
       </c>
       <c r="H40" t="n">
-        <v>42.30923631643843</v>
+        <v>115.2433418790257</v>
       </c>
       <c r="I40" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="J40" t="n">
-        <v>161.6320800271018</v>
+        <v>83.71036337888091</v>
       </c>
       <c r="K40" t="n">
-        <v>242.4852459542695</v>
+        <v>164.5635293060487</v>
       </c>
       <c r="L40" t="n">
-        <v>727.1980472880766</v>
+        <v>272.8874370486909</v>
       </c>
       <c r="M40" t="n">
-        <v>841.9398908599021</v>
+        <v>679.8623165466551</v>
       </c>
       <c r="N40" t="n">
-        <v>1191.185626340569</v>
+        <v>1191.18562634057</v>
       </c>
       <c r="O40" t="n">
-        <v>1670.229082625345</v>
+        <v>1670.229082625346</v>
       </c>
       <c r="P40" t="n">
         <v>2066.602562521075</v>
       </c>
       <c r="Q40" t="n">
-        <v>2115.461815821921</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="R40" t="n">
-        <v>2108.545104715878</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="S40" t="n">
-        <v>1953.960741935862</v>
+        <v>1960.877453041907</v>
       </c>
       <c r="T40" t="n">
-        <v>1714.434029430098</v>
+        <v>1721.350740536142</v>
       </c>
       <c r="U40" t="n">
-        <v>1434.298252869998</v>
+        <v>1721.350740536142</v>
       </c>
       <c r="V40" t="n">
-        <v>1152.586785478027</v>
+        <v>1439.639273144171</v>
       </c>
       <c r="W40" t="n">
-        <v>877.7343816505395</v>
+        <v>1164.786869316684</v>
       </c>
       <c r="X40" t="n">
-        <v>635.1704850963446</v>
+        <v>922.2229727624893</v>
       </c>
       <c r="Y40" t="n">
-        <v>408.8277167860866</v>
+        <v>695.8802044522314</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1149.36351804887</v>
+        <v>1743.60370878088</v>
       </c>
       <c r="C41" t="n">
-        <v>1149.36351804887</v>
+        <v>1316.70297879418</v>
       </c>
       <c r="D41" t="n">
-        <v>1149.36351804887</v>
+        <v>893.4103579791806</v>
       </c>
       <c r="E41" t="n">
-        <v>723.3865781967273</v>
+        <v>467.4334181270382</v>
       </c>
       <c r="F41" t="n">
-        <v>298.2623963861275</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="G41" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="H41" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="I41" t="n">
-        <v>83.27205888092203</v>
+        <v>83.27205888092249</v>
       </c>
       <c r="J41" t="n">
-        <v>219.6234095469042</v>
+        <v>219.6234095469044</v>
       </c>
       <c r="K41" t="n">
-        <v>432.2237479688205</v>
+        <v>432.2237479688206</v>
       </c>
       <c r="L41" t="n">
-        <v>701.9698034910143</v>
+        <v>701.9698034910145</v>
       </c>
       <c r="M41" t="n">
-        <v>1007.260548344704</v>
+        <v>1007.260548344705</v>
       </c>
       <c r="N41" t="n">
-        <v>1318.240960483334</v>
+        <v>1318.240960483335</v>
       </c>
       <c r="O41" t="n">
         <v>1609.723965346858</v>
       </c>
       <c r="P41" t="n">
-        <v>1852.891553660639</v>
+        <v>1852.89155366064</v>
       </c>
       <c r="Q41" t="n">
-        <v>2027.672214199633</v>
+        <v>2027.672214199634</v>
       </c>
       <c r="R41" t="n">
-        <v>2115.461815821921</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="S41" t="n">
-        <v>2115.461815821921</v>
+        <v>2056.425055186427</v>
       </c>
       <c r="T41" t="n">
-        <v>1903.244282622273</v>
+        <v>2056.425055186427</v>
       </c>
       <c r="U41" t="n">
-        <v>1903.244282622273</v>
+        <v>2056.425055186427</v>
       </c>
       <c r="V41" t="n">
-        <v>1545.754867748523</v>
+        <v>2056.425055186427</v>
       </c>
       <c r="W41" t="n">
-        <v>1149.36351804887</v>
+        <v>2056.425055186427</v>
       </c>
       <c r="X41" t="n">
-        <v>1149.36351804887</v>
+        <v>2056.425055186427</v>
       </c>
       <c r="Y41" t="n">
-        <v>1149.36351804887</v>
+        <v>2056.425055186427</v>
       </c>
     </row>
     <row r="42">
@@ -7484,28 +7484,28 @@
         <v>85.40590774534965</v>
       </c>
       <c r="H42" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="I42" t="n">
-        <v>62.21485922915105</v>
+        <v>85.67216507356292</v>
       </c>
       <c r="J42" t="n">
-        <v>140.3668894550332</v>
+        <v>313.071244225976</v>
       </c>
       <c r="K42" t="n">
-        <v>286.641316001096</v>
+        <v>459.3456707720388</v>
       </c>
       <c r="L42" t="n">
-        <v>490.8527468154102</v>
+        <v>663.557101586353</v>
       </c>
       <c r="M42" t="n">
-        <v>732.3033456227829</v>
+        <v>905.0077003937258</v>
       </c>
       <c r="N42" t="n">
-        <v>982.485828120716</v>
+        <v>1155.190182891659</v>
       </c>
       <c r="O42" t="n">
-        <v>1380.447560542188</v>
+        <v>1380.447560542187</v>
       </c>
       <c r="P42" t="n">
         <v>1558.094841883416</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>936.7266931795384</v>
+        <v>695.8802044522314</v>
       </c>
       <c r="C43" t="n">
-        <v>917.8574879757541</v>
+        <v>695.8802044522314</v>
       </c>
       <c r="D43" t="n">
-        <v>754.5407151025248</v>
+        <v>532.5634315790021</v>
       </c>
       <c r="E43" t="n">
-        <v>588.3325092553783</v>
+        <v>416.4707350299388</v>
       </c>
       <c r="F43" t="n">
         <v>416.4707350299388</v>
@@ -7566,55 +7566,55 @@
         <v>115.2433418790257</v>
       </c>
       <c r="I43" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="J43" t="n">
-        <v>83.71036337888088</v>
+        <v>83.71036337888091</v>
       </c>
       <c r="K43" t="n">
-        <v>393.1638762143294</v>
+        <v>164.5635293060487</v>
       </c>
       <c r="L43" t="n">
-        <v>877.8766775481365</v>
+        <v>469.0417217040371</v>
       </c>
       <c r="M43" t="n">
-        <v>992.618521119962</v>
+        <v>992.6185211199628</v>
       </c>
       <c r="N43" t="n">
-        <v>1503.941830913877</v>
+        <v>1503.941830913878</v>
       </c>
       <c r="O43" t="n">
-        <v>1982.985287198652</v>
+        <v>1982.985287198653</v>
       </c>
       <c r="P43" t="n">
         <v>2066.602562521075</v>
       </c>
       <c r="Q43" t="n">
-        <v>2115.461815821921</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="R43" t="n">
-        <v>2115.461815821921</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="S43" t="n">
-        <v>2115.461815821921</v>
+        <v>1960.877453041907</v>
       </c>
       <c r="T43" t="n">
-        <v>1875.935103316157</v>
+        <v>1721.350740536142</v>
       </c>
       <c r="U43" t="n">
-        <v>1595.799326756057</v>
+        <v>1721.350740536142</v>
       </c>
       <c r="V43" t="n">
-        <v>1595.799326756057</v>
+        <v>1439.639273144171</v>
       </c>
       <c r="W43" t="n">
-        <v>1595.799326756057</v>
+        <v>1164.786869316684</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.235430201862</v>
+        <v>922.2229727624893</v>
       </c>
       <c r="Y43" t="n">
-        <v>1126.892661891604</v>
+        <v>695.8802044522314</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1248.657165271279</v>
+        <v>1316.70297879418</v>
       </c>
       <c r="C44" t="n">
-        <v>821.7564352845789</v>
+        <v>1316.70297879418</v>
       </c>
       <c r="D44" t="n">
-        <v>444.6590268239129</v>
+        <v>893.4103579791806</v>
       </c>
       <c r="E44" t="n">
-        <v>444.6590268239129</v>
+        <v>467.4334181270382</v>
       </c>
       <c r="F44" t="n">
-        <v>444.6590268239129</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="G44" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="H44" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="I44" t="n">
-        <v>83.27205888092226</v>
+        <v>83.2720588809223</v>
       </c>
       <c r="J44" t="n">
-        <v>219.6234095469045</v>
+        <v>219.6234095469046</v>
       </c>
       <c r="K44" t="n">
-        <v>432.2237479688206</v>
+        <v>432.2237479688209</v>
       </c>
       <c r="L44" t="n">
-        <v>701.9698034910143</v>
+        <v>701.9698034910148</v>
       </c>
       <c r="M44" t="n">
-        <v>1007.260548344704</v>
+        <v>1007.260548344705</v>
       </c>
       <c r="N44" t="n">
-        <v>1318.240960483334</v>
+        <v>1318.240960483335</v>
       </c>
       <c r="O44" t="n">
-        <v>1609.723965346857</v>
+        <v>1609.723965346858</v>
       </c>
       <c r="P44" t="n">
-        <v>1852.891553660639</v>
+        <v>1852.89155366064</v>
       </c>
       <c r="Q44" t="n">
-        <v>2027.672214199633</v>
+        <v>2027.672214199634</v>
       </c>
       <c r="R44" t="n">
-        <v>2115.461815821921</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="S44" t="n">
-        <v>2115.461815821921</v>
+        <v>2056.425055186427</v>
       </c>
       <c r="T44" t="n">
-        <v>1903.244282622273</v>
+        <v>1844.207521986779</v>
       </c>
       <c r="U44" t="n">
-        <v>1645.048514970932</v>
+        <v>1586.011754335437</v>
       </c>
       <c r="V44" t="n">
-        <v>1645.048514970932</v>
+        <v>1586.011754335437</v>
       </c>
       <c r="W44" t="n">
-        <v>1248.657165271279</v>
+        <v>1586.011754335437</v>
       </c>
       <c r="X44" t="n">
-        <v>1248.657165271279</v>
+        <v>1586.011754335437</v>
       </c>
       <c r="Y44" t="n">
-        <v>1248.657165271279</v>
+        <v>1586.011754335437</v>
       </c>
     </row>
     <row r="45">
@@ -7721,31 +7721,31 @@
         <v>85.40590774534965</v>
       </c>
       <c r="H45" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="I45" t="n">
-        <v>62.21485922915105</v>
+        <v>85.67216507356292</v>
       </c>
       <c r="J45" t="n">
-        <v>140.3668894550332</v>
+        <v>313.071244225976</v>
       </c>
       <c r="K45" t="n">
-        <v>286.641316001096</v>
+        <v>459.3456707720388</v>
       </c>
       <c r="L45" t="n">
-        <v>490.8527468154102</v>
+        <v>663.557101586353</v>
       </c>
       <c r="M45" t="n">
-        <v>732.3033456227829</v>
+        <v>905.0077003937258</v>
       </c>
       <c r="N45" t="n">
-        <v>982.485828120716</v>
+        <v>1155.190182891659</v>
       </c>
       <c r="O45" t="n">
-        <v>1207.743205771244</v>
+        <v>1380.447560542187</v>
       </c>
       <c r="P45" t="n">
-        <v>1385.390487112473</v>
+        <v>1558.094841883416</v>
       </c>
       <c r="Q45" t="n">
         <v>1668.735475478457</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.4613146484861</v>
+        <v>551.5082244761408</v>
       </c>
       <c r="C46" t="n">
-        <v>341.4887515274021</v>
+        <v>379.5356613550567</v>
       </c>
       <c r="D46" t="n">
-        <v>178.1719786541728</v>
+        <v>379.5356613550567</v>
       </c>
       <c r="E46" t="n">
-        <v>178.1719786541728</v>
+        <v>379.5356613550567</v>
       </c>
       <c r="F46" t="n">
-        <v>178.1719786541728</v>
+        <v>207.6738871296171</v>
       </c>
       <c r="G46" t="n">
-        <v>178.1719786541728</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="H46" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="I46" t="n">
-        <v>42.30923631643843</v>
+        <v>42.30923631643844</v>
       </c>
       <c r="J46" t="n">
-        <v>161.6320800271018</v>
+        <v>83.71036337888091</v>
       </c>
       <c r="K46" t="n">
-        <v>294.6210348520677</v>
+        <v>164.5635293060487</v>
       </c>
       <c r="L46" t="n">
-        <v>402.9449425947099</v>
+        <v>317.6682243261381</v>
       </c>
       <c r="M46" t="n">
-        <v>926.5217420106354</v>
+        <v>841.2450237420638</v>
       </c>
       <c r="N46" t="n">
-        <v>1039.81212896267</v>
+        <v>1352.568333535979</v>
       </c>
       <c r="O46" t="n">
-        <v>1518.855585247446</v>
+        <v>1831.611789820754</v>
       </c>
       <c r="P46" t="n">
-        <v>1915.229065143176</v>
+        <v>1915.229065143177</v>
       </c>
       <c r="Q46" t="n">
-        <v>2115.461815821921</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="R46" t="n">
-        <v>2108.545104715878</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="S46" t="n">
-        <v>1953.960741935862</v>
+        <v>2115.461815821922</v>
       </c>
       <c r="T46" t="n">
-        <v>1714.434029430098</v>
+        <v>1875.935103316158</v>
       </c>
       <c r="U46" t="n">
-        <v>1434.298252869998</v>
+        <v>1595.799326756058</v>
       </c>
       <c r="V46" t="n">
-        <v>1152.586785478027</v>
+        <v>1314.087859364087</v>
       </c>
       <c r="W46" t="n">
-        <v>877.7343816505395</v>
+        <v>1039.2354555366</v>
       </c>
       <c r="X46" t="n">
-        <v>877.7343816505395</v>
+        <v>796.6715589824047</v>
       </c>
       <c r="Y46" t="n">
-        <v>651.3916133402815</v>
+        <v>570.3287906721467</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>174.4488432029727</v>
+        <v>150.7545948752837</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>142.2823621699383</v>
+        <v>412.9646018627276</v>
       </c>
       <c r="N13" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
-        <v>381.5174992961649</v>
+        <v>13.95736896082781</v>
       </c>
       <c r="P13" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>150.7545948752839</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>174.4488432029729</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9090,10 +9090,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>198.1356410660062</v>
       </c>
       <c r="M16" t="n">
-        <v>412.9646018627274</v>
+        <v>412.9646018627276</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
@@ -9102,7 +9102,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>198.1356410660057</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>150.7545948752837</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>280.9695505614636</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>274.0194482196165</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>283.937722676002</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>150.7545948752837</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>257.2753022337749</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,16 +9558,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>271.6998805403873</v>
       </c>
       <c r="M22" t="n">
-        <v>383.1824854910491</v>
+        <v>412.9646018627276</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2595691231969397</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,10 +9646,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>442.7277761998949</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>436.9806375282382</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>330.5054808458979</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>150.7545948752837</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>280.9695505614637</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9813,10 +9813,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>211.7730770991248</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.76024154820723</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>484.2819033486769</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>330.5054808458984</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>150.7545948752837</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>280.9695505614635</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,10 +10035,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>145.6381321907557</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>276.0485205515061</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>220.7131209770308</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>478.6315027973658</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>401.3364800539641</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>505.4784393715198</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>150.7545948752837</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.2753022337749</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>145.6381321907557</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>48.76024154820722</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>229.374482204374</v>
+        <v>247.5600575511847</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>478.6315027973657</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>150.7545948752837</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>280.9695505614636</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.76024154820723</v>
+        <v>48.76024154820722</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>150.7545948752837</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>174.4488432029729</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>106.5207073584907</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>412.9646018627274</v>
+        <v>412.9646018627276</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>348.0418130630595</v>
+        <v>199.4623387549339</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>280.9695505614637</v>
+        <v>150.7545948752837</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,19 +10980,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>295.1848847738775</v>
       </c>
       <c r="N40" t="n">
-        <v>238.3387358875073</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
         <v>381.5174992961649</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>150.7545948752837</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>174.4488432029729</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11220,13 +11220,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>230.9094413214956</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>198.1356410660062</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>412.9646018627276</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>150.7545948752837</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>174.4488432029729</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>52.662413028079</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>45.23311846206784</v>
       </c>
       <c r="M46" t="n">
-        <v>412.9646018627274</v>
+        <v>412.9646018627276</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>408.8023366536314</v>
       </c>
       <c r="C11" t="n">
         <v>415.7841786918495</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>412.2121506118664</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>414.0253959975104</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>391.4787486074164</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>267.8732461771102</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>51.59884903415726</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.2478138726681</v>
       </c>
       <c r="U11" t="n">
         <v>248.7662659798448</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.6347886746713</v>
       </c>
       <c r="W11" t="n">
-        <v>385.5798922076732</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>134.5331054653522</v>
+        <v>400.7552548489469</v>
       </c>
       <c r="Y11" t="n">
-        <v>394.4363533496752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>163.4052934948898</v>
       </c>
       <c r="D13" t="n">
         <v>154.8360611495137</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>157.6985797936916</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>163.2956124882019</v>
       </c>
       <c r="G13" t="n">
-        <v>156.8634603100635</v>
+        <v>48.30314863457977</v>
       </c>
       <c r="H13" t="n">
-        <v>127.6565709193737</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>65.35722051197804</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>48.28348789967526</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>265.2563357942288</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>408.8023366536314</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>415.7841786918495</v>
       </c>
       <c r="D14" t="n">
         <v>412.2121506118664</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>200.964701304841</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.8732461771102</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>51.59884903415727</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>203.2478138726681</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7662659798448</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>347.0669767300296</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>385.5798922076732</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>400.7552548489468</v>
+        <v>400.7552548489469</v>
       </c>
       <c r="Y14" t="n">
-        <v>246.0464955717712</v>
+        <v>394.4363533496752</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.8360611495137</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>163.2956124882018</v>
+        <v>163.2956124882019</v>
       </c>
       <c r="G16" t="n">
-        <v>95.5594758465561</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>127.6565709193737</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>65.35722051197804</v>
+        <v>47.06662006206899</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>146.1909751572318</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>270.4868747995156</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>272.0468087230681</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23740,13 +23740,13 @@
         <v>412.2121506118664</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>414.8696264586377</v>
       </c>
       <c r="F17" t="n">
         <v>414.0253959975104</v>
       </c>
       <c r="G17" t="n">
-        <v>391.4787486074164</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>51.59884903415727</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.2478138726681</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>42.69449517599062</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>347.0669767300297</v>
       </c>
       <c r="W17" t="n">
-        <v>385.5798922076732</v>
+        <v>385.5798922076733</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>394.4363533496752</v>
+        <v>321.5196568512399</v>
       </c>
     </row>
     <row r="18">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>181.4167650299617</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>47.39631443047784</v>
       </c>
       <c r="D19" t="n">
-        <v>93.83202238574982</v>
+        <v>154.8360611495137</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>157.6985797936916</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>146.1909751572318</v>
+        <v>146.1909751572319</v>
       </c>
       <c r="T19" t="n">
-        <v>230.2839013857234</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>217.231796632172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>408.8023366536314</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>415.7841786918495</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>414.8696264586376</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>391.4787486074164</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.8732461771102</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>51.59884903415727</v>
       </c>
       <c r="T20" t="n">
-        <v>52.20048024799294</v>
+        <v>203.2478138726681</v>
       </c>
       <c r="U20" t="n">
         <v>248.7662659798448</v>
       </c>
       <c r="V20" t="n">
-        <v>347.0669767300296</v>
+        <v>347.0669767300297</v>
       </c>
       <c r="W20" t="n">
-        <v>385.5798922076732</v>
+        <v>385.5798922076733</v>
       </c>
       <c r="X20" t="n">
-        <v>400.7552548489468</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>394.4363533496752</v>
+        <v>392.6800642098391</v>
       </c>
     </row>
     <row r="21">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.4167650299617</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.8360611495137</v>
+        <v>82.02447204954592</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>157.6985797936916</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>163.2956124882019</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>156.8634603100636</v>
       </c>
       <c r="H22" t="n">
-        <v>121.0019679956782</v>
+        <v>127.6565709193738</v>
       </c>
       <c r="I22" t="n">
         <v>65.35722051197804</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>230.2839013857234</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>415.7841786918495</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>391.4787486074164</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>51.59884903415727</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>203.2478138726681</v>
@@ -24265,13 +24265,13 @@
         <v>248.7662659798448</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>347.0669767300297</v>
       </c>
       <c r="W23" t="n">
-        <v>385.5798922076732</v>
+        <v>232.3178268939335</v>
       </c>
       <c r="X23" t="n">
-        <v>166.5114924665652</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>394.4363533496752</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.7207901720935</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.44639302914061</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.0953578676514</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6138099748281</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>198.6165523601858</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>112.2765850527242</v>
       </c>
     </row>
     <row r="27">
@@ -24682,22 +24682,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>383.859327763692</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>79.89946370689535</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.7207901720935</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.44639302914061</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6138099748281</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>67.41357592475157</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>398.3262926023997</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.7207901720935</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>210.0953578676514</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6138099748281</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>5.017447283479271</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25156,22 +25156,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>253.5500938267073</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.7207901720935</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.44639302914061</v>
+        <v>58.44639302914059</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>48.39073607756177</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>98.65743604265323</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7110043050469</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.5041149143571</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.20476450696137</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="S37" t="n">
-        <v>153.0385191522152</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>72.52867599830395</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>105.9567477071248</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3262926023997</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>274.7207901720935</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.44639302914059</v>
       </c>
       <c r="T38" t="n">
         <v>210.0953578676514</v>
@@ -25459,7 +25459,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>5.4291273313587</v>
       </c>
     </row>
     <row r="39">
@@ -25557,19 +25557,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>81.79209078006051</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7110043050469</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>124.4612520630253</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.20476450696138</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.334418794499</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>105.9567477071238</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>144.9326641334076</v>
+        <v>398.3262926023997</v>
       </c>
       <c r="H41" t="n">
         <v>274.7207901720935</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.44639302914061</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.0953578676514</v>
       </c>
       <c r="U41" t="n">
         <v>255.6138099748281</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>151.5723243381267</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>49.61435420510232</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="S43" t="n">
-        <v>153.0385191522152</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.334418794499</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>149.0341928627707</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>45.73326023079045</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3262926023997</v>
       </c>
       <c r="H44" t="n">
         <v>274.7207901720935</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.44639302914061</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>51.71331332006753</v>
+        <v>169.6319484908991</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7110043050469</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.5041149143571</v>
       </c>
       <c r="I46" t="n">
-        <v>72.20476450696138</v>
+        <v>72.20476450696137</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>153.0385191522152</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>293267.3619066423</v>
+        <v>293267.3619066424</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>406058.5163446394</v>
+        <v>406058.5163446392</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>400144.566497932</v>
+        <v>400144.5664979321</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>285315.5829670281</v>
+        <v>285315.5829670282</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>285315.582967028</v>
+        <v>285315.5829670281</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>559413.281127317</v>
       </c>
       <c r="C2" t="n">
-        <v>559413.2811273169</v>
+        <v>559413.281127317</v>
       </c>
       <c r="D2" t="n">
-        <v>559413.2811273169</v>
+        <v>559413.2811273168</v>
       </c>
       <c r="E2" t="n">
         <v>340400.4957588026</v>
@@ -26334,19 +26334,19 @@
         <v>340400.4957588026</v>
       </c>
       <c r="I2" t="n">
-        <v>424953.5184725322</v>
+        <v>424953.518472532</v>
       </c>
       <c r="J2" t="n">
         <v>417513.3880202229</v>
       </c>
       <c r="K2" t="n">
-        <v>417513.3880202229</v>
+        <v>417513.3880202228</v>
       </c>
       <c r="L2" t="n">
         <v>417513.3880202229</v>
       </c>
       <c r="M2" t="n">
-        <v>330396.6448347714</v>
+        <v>330396.6448347715</v>
       </c>
       <c r="N2" t="n">
         <v>330396.6448347715</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>556959.1544264021</v>
+        <v>556959.1544264022</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>59097.43528268635</v>
+        <v>59097.43528268629</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>76413.08409096596</v>
+        <v>76413.084090966</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,28 +26426,28 @@
         <v>324702.6297467059</v>
       </c>
       <c r="E4" t="n">
-        <v>28988.22218140592</v>
+        <v>28988.22218140591</v>
       </c>
       <c r="F4" t="n">
         <v>28988.22218140592</v>
       </c>
       <c r="G4" t="n">
-        <v>28988.22218140592</v>
+        <v>28988.22218140591</v>
       </c>
       <c r="H4" t="n">
-        <v>28988.22218140592</v>
+        <v>28988.22218140591</v>
       </c>
       <c r="I4" t="n">
-        <v>73206.50329587693</v>
+        <v>73206.50329587689</v>
       </c>
       <c r="J4" t="n">
-        <v>68851.03509063559</v>
+        <v>68851.03509063557</v>
       </c>
       <c r="K4" t="n">
-        <v>68851.03509063562</v>
+        <v>68851.03509063557</v>
       </c>
       <c r="L4" t="n">
-        <v>68851.0350906356</v>
+        <v>68851.03509063557</v>
       </c>
       <c r="M4" t="n">
         <v>23131.94655440161</v>
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>43410.13674689342</v>
+        <v>43410.13674689343</v>
       </c>
       <c r="F5" t="n">
-        <v>43410.13674689342</v>
+        <v>43410.13674689343</v>
       </c>
       <c r="G5" t="n">
-        <v>43410.13674689342</v>
+        <v>43410.13674689343</v>
       </c>
       <c r="H5" t="n">
-        <v>43410.13674689342</v>
+        <v>43410.13674689343</v>
       </c>
       <c r="I5" t="n">
         <v>56922.1349162269</v>
       </c>
       <c r="J5" t="n">
-        <v>56346.46874011265</v>
+        <v>56346.46874011266</v>
       </c>
       <c r="K5" t="n">
-        <v>56346.46874011265</v>
+        <v>56346.46874011266</v>
       </c>
       <c r="L5" t="n">
-        <v>56346.46874011265</v>
+        <v>56346.46874011266</v>
       </c>
       <c r="M5" t="n">
-        <v>42834.47057077917</v>
+        <v>42834.47057077918</v>
       </c>
       <c r="N5" t="n">
-        <v>42834.47057077917</v>
+        <v>42834.47057077918</v>
       </c>
       <c r="O5" t="n">
-        <v>42834.47057077917</v>
+        <v>42834.47057077918</v>
       </c>
       <c r="P5" t="n">
-        <v>42834.47057077917</v>
+        <v>42834.47057077918</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>201083.0513806111</v>
+        <v>201061.3377391148</v>
       </c>
       <c r="C6" t="n">
-        <v>201083.051380611</v>
+        <v>201061.3377391148</v>
       </c>
       <c r="D6" t="n">
-        <v>201083.051380611</v>
+        <v>201061.3377391146</v>
       </c>
       <c r="E6" t="n">
-        <v>-288957.0175958988</v>
+        <v>-289540.3024819299</v>
       </c>
       <c r="F6" t="n">
-        <v>268002.1368305034</v>
+        <v>267418.8519444722</v>
       </c>
       <c r="G6" t="n">
-        <v>268002.1368305032</v>
+        <v>267418.8519444722</v>
       </c>
       <c r="H6" t="n">
-        <v>268002.1368305032</v>
+        <v>267418.8519444722</v>
       </c>
       <c r="I6" t="n">
-        <v>235727.444977742</v>
+        <v>235360.9627140539</v>
       </c>
       <c r="J6" t="n">
-        <v>292315.8841894747</v>
+        <v>291930.3246682166</v>
       </c>
       <c r="K6" t="n">
-        <v>292315.8841894747</v>
+        <v>291930.3246682165</v>
       </c>
       <c r="L6" t="n">
-        <v>292315.8841894747</v>
+        <v>291930.3246682166</v>
       </c>
       <c r="M6" t="n">
-        <v>188017.1436186247</v>
+        <v>187408.2078327885</v>
       </c>
       <c r="N6" t="n">
-        <v>264430.2277095907</v>
+        <v>263821.2919237545</v>
       </c>
       <c r="O6" t="n">
-        <v>264430.2277095907</v>
+        <v>263821.2919237546</v>
       </c>
       <c r="P6" t="n">
-        <v>264430.2277095907</v>
+        <v>263821.2919237545</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="F2" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="G2" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="H2" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="I2" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>489.883072031466</v>
+        <v>489.8830720314661</v>
       </c>
       <c r="F3" t="n">
         <v>489.883072031466</v>
       </c>
       <c r="G3" t="n">
-        <v>489.883072031466</v>
+        <v>489.8830720314661</v>
       </c>
       <c r="H3" t="n">
-        <v>489.883072031466</v>
+        <v>489.8830720314661</v>
       </c>
       <c r="I3" t="n">
-        <v>489.883072031466</v>
+        <v>489.8830720314661</v>
       </c>
       <c r="J3" t="n">
-        <v>489.883072031466</v>
+        <v>489.8830720314661</v>
       </c>
       <c r="K3" t="n">
-        <v>489.883072031466</v>
+        <v>489.8830720314661</v>
       </c>
       <c r="L3" t="n">
-        <v>489.883072031466</v>
+        <v>489.8830720314661</v>
       </c>
       <c r="M3" t="n">
-        <v>489.883072031466</v>
+        <v>489.8830720314661</v>
       </c>
       <c r="N3" t="n">
-        <v>489.883072031466</v>
+        <v>489.8830720314661</v>
       </c>
       <c r="O3" t="n">
-        <v>489.883072031466</v>
+        <v>489.8830720314661</v>
       </c>
       <c r="P3" t="n">
-        <v>489.883072031466</v>
+        <v>489.8830720314661</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>528.8654539554803</v>
+        <v>528.8654539554806</v>
       </c>
       <c r="F4" t="n">
-        <v>528.8654539554803</v>
+        <v>528.8654539554806</v>
       </c>
       <c r="G4" t="n">
-        <v>528.8654539554803</v>
+        <v>528.8654539554806</v>
       </c>
       <c r="H4" t="n">
-        <v>528.8654539554803</v>
+        <v>528.8654539554806</v>
       </c>
       <c r="I4" t="n">
         <v>751.1022659510969</v>
@@ -26822,16 +26822,16 @@
         <v>751.1022659510969</v>
       </c>
       <c r="M4" t="n">
-        <v>528.8654539554803</v>
+        <v>528.8654539554806</v>
       </c>
       <c r="N4" t="n">
-        <v>528.8654539554803</v>
+        <v>528.8654539554806</v>
       </c>
       <c r="O4" t="n">
-        <v>528.8654539554803</v>
+        <v>528.8654539554806</v>
       </c>
       <c r="P4" t="n">
-        <v>528.8654539554803</v>
+        <v>528.8654539554806</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>489.883072031466</v>
+        <v>489.8830720314661</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>528.8654539554805</v>
+        <v>528.8654539554806</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>222.2368119956166</v>
+        <v>222.2368119956163</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>306.628641959864</v>
+        <v>306.6286419598642</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>528.8654539554805</v>
+        <v>528.8654539554806</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="C11" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="D11" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="E11" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="F11" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="G11" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="H11" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="T11" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="U11" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="V11" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="W11" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="X11" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
     </row>
     <row r="12">
@@ -28247,28 +28247,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="C13" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="D13" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="E13" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="F13" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="G13" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="H13" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="I13" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28295,28 +28295,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="S13" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="T13" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="U13" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="V13" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="W13" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="X13" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="C14" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="D14" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="E14" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="F14" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="G14" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="H14" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="T14" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="U14" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="V14" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="W14" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="X14" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
     </row>
     <row r="15">
@@ -28484,28 +28484,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="C16" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="D16" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="E16" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="F16" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="G16" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="H16" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="I16" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28532,28 +28532,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983333</v>
       </c>
       <c r="S16" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="T16" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="U16" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="V16" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="W16" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="X16" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="C17" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="D17" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="E17" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="F17" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="G17" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="H17" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="T17" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="U17" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="V17" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="W17" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="X17" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
     </row>
     <row r="18">
@@ -28721,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="C19" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="D19" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="E19" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="F19" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="G19" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="H19" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="I19" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28769,28 +28769,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="S19" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="T19" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="U19" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="V19" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="W19" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="X19" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="C20" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="D20" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="E20" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="F20" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="G20" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="H20" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="T20" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="U20" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="V20" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="W20" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="X20" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
     </row>
     <row r="21">
@@ -28958,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="C22" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="D22" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="E22" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="F22" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="G22" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="H22" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="I22" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29006,28 +29006,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="S22" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="T22" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="U22" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="V22" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="W22" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="X22" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="C23" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="D23" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="E23" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="F23" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="G23" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="H23" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="T23" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="U23" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="V23" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="W23" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="X23" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.84754399498334</v>
+        <v>6.847543994983326</v>
       </c>
     </row>
     <row r="24">
@@ -31758,7 +31758,7 @@
         <v>20.16890456861206</v>
       </c>
       <c r="I11" t="n">
-        <v>75.92449099293708</v>
+        <v>75.92449099293709</v>
       </c>
       <c r="J11" t="n">
         <v>167.1485965219323</v>
@@ -31773,7 +31773,7 @@
         <v>345.8057526506338</v>
       </c>
       <c r="N11" t="n">
-        <v>351.4012512573048</v>
+        <v>351.4012512573049</v>
       </c>
       <c r="O11" t="n">
         <v>331.8182369959464</v>
@@ -31788,10 +31788,10 @@
         <v>123.7090151698355</v>
       </c>
       <c r="S11" t="n">
-        <v>44.87722815645039</v>
+        <v>44.8772281564504</v>
       </c>
       <c r="T11" t="n">
-        <v>8.620957378161776</v>
+        <v>8.620957378161778</v>
       </c>
       <c r="U11" t="n">
         <v>0.1575503347236874</v>
@@ -31837,13 +31837,13 @@
         <v>10.1766275906914</v>
       </c>
       <c r="I12" t="n">
-        <v>36.27907656082084</v>
+        <v>36.27907656082085</v>
       </c>
       <c r="J12" t="n">
-        <v>99.55255900594162</v>
+        <v>99.55255900594163</v>
       </c>
       <c r="K12" t="n">
-        <v>170.1511798394574</v>
+        <v>170.1511798394575</v>
       </c>
       <c r="L12" t="n">
         <v>228.7892592539409</v>
@@ -31855,7 +31855,7 @@
         <v>274.0526064942821</v>
       </c>
       <c r="O12" t="n">
-        <v>250.7045944197258</v>
+        <v>250.7045944197259</v>
       </c>
       <c r="P12" t="n">
         <v>201.2125395293016</v>
@@ -31864,16 +31864,16 @@
         <v>134.5052540415452</v>
       </c>
       <c r="R12" t="n">
-        <v>65.4224978082777</v>
+        <v>65.42249780827771</v>
       </c>
       <c r="S12" t="n">
-        <v>19.57221518918167</v>
+        <v>19.57221518918168</v>
       </c>
       <c r="T12" t="n">
         <v>4.247193803744501</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06932307623086786</v>
+        <v>0.06932307623086788</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8833957036632993</v>
+        <v>0.8833957036632994</v>
       </c>
       <c r="H13" t="n">
-        <v>7.854190892570067</v>
+        <v>7.854190892570068</v>
       </c>
       <c r="I13" t="n">
         <v>26.56611807016541</v>
       </c>
       <c r="J13" t="n">
-        <v>62.45607624899526</v>
+        <v>62.45607624899527</v>
       </c>
       <c r="K13" t="n">
         <v>102.6345190256088</v>
@@ -31934,16 +31934,16 @@
         <v>135.1836352705848</v>
       </c>
       <c r="O13" t="n">
-        <v>124.8639672777907</v>
+        <v>124.8639672777908</v>
       </c>
       <c r="P13" t="n">
         <v>106.8426949230594</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.97234387675137</v>
+        <v>73.97234387675138</v>
       </c>
       <c r="R13" t="n">
-        <v>39.72068318471525</v>
+        <v>39.72068318471526</v>
       </c>
       <c r="S13" t="n">
         <v>15.39517785384131</v>
@@ -31952,7 +31952,7 @@
         <v>3.774508915652278</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04818522019981638</v>
+        <v>0.04818522019981639</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,13 +31992,13 @@
         <v>1.969379184046093</v>
       </c>
       <c r="H14" t="n">
-        <v>20.16890456861205</v>
+        <v>20.16890456861206</v>
       </c>
       <c r="I14" t="n">
-        <v>75.92449099293707</v>
+        <v>75.92449099293708</v>
       </c>
       <c r="J14" t="n">
-        <v>167.1485965219322</v>
+        <v>167.1485965219323</v>
       </c>
       <c r="K14" t="n">
         <v>250.5124173826034</v>
@@ -32074,19 +32074,19 @@
         <v>10.1766275906914</v>
       </c>
       <c r="I15" t="n">
-        <v>36.27907656082083</v>
+        <v>36.27907656082084</v>
       </c>
       <c r="J15" t="n">
-        <v>99.5525590059416</v>
+        <v>99.55255900594162</v>
       </c>
       <c r="K15" t="n">
         <v>170.1511798394574</v>
       </c>
       <c r="L15" t="n">
-        <v>228.7892592539408</v>
+        <v>228.7892592539409</v>
       </c>
       <c r="M15" t="n">
-        <v>266.9862742571489</v>
+        <v>266.986274257149</v>
       </c>
       <c r="N15" t="n">
         <v>274.0526064942821</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8833957036632992</v>
+        <v>0.8833957036632993</v>
       </c>
       <c r="H16" t="n">
-        <v>7.854190892570066</v>
+        <v>7.854190892570067</v>
       </c>
       <c r="I16" t="n">
         <v>26.56611807016541</v>
       </c>
       <c r="J16" t="n">
-        <v>62.45607624899525</v>
+        <v>62.45607624899526</v>
       </c>
       <c r="K16" t="n">
-        <v>102.6345190256087</v>
+        <v>102.6345190256088</v>
       </c>
       <c r="L16" t="n">
         <v>131.3368485246327</v>
@@ -32174,13 +32174,13 @@
         <v>124.8639672777907</v>
       </c>
       <c r="P16" t="n">
-        <v>106.8426949230593</v>
+        <v>106.8426949230594</v>
       </c>
       <c r="Q16" t="n">
         <v>73.97234387675137</v>
       </c>
       <c r="R16" t="n">
-        <v>39.72068318471524</v>
+        <v>39.72068318471525</v>
       </c>
       <c r="S16" t="n">
         <v>15.39517785384131</v>
@@ -32229,13 +32229,13 @@
         <v>1.969379184046093</v>
       </c>
       <c r="H17" t="n">
-        <v>20.16890456861205</v>
+        <v>20.16890456861206</v>
       </c>
       <c r="I17" t="n">
-        <v>75.92449099293707</v>
+        <v>75.92449099293709</v>
       </c>
       <c r="J17" t="n">
-        <v>167.1485965219322</v>
+        <v>167.1485965219323</v>
       </c>
       <c r="K17" t="n">
         <v>250.5124173826034</v>
@@ -32247,7 +32247,7 @@
         <v>345.8057526506338</v>
       </c>
       <c r="N17" t="n">
-        <v>351.4012512573048</v>
+        <v>351.4012512573049</v>
       </c>
       <c r="O17" t="n">
         <v>331.8182369959464</v>
@@ -32262,10 +32262,10 @@
         <v>123.7090151698355</v>
       </c>
       <c r="S17" t="n">
-        <v>44.87722815645039</v>
+        <v>44.8772281564504</v>
       </c>
       <c r="T17" t="n">
-        <v>8.620957378161776</v>
+        <v>8.620957378161778</v>
       </c>
       <c r="U17" t="n">
         <v>0.1575503347236874</v>
@@ -32311,25 +32311,25 @@
         <v>10.1766275906914</v>
       </c>
       <c r="I18" t="n">
-        <v>36.27907656082083</v>
+        <v>36.27907656082085</v>
       </c>
       <c r="J18" t="n">
-        <v>99.5525590059416</v>
+        <v>99.55255900594163</v>
       </c>
       <c r="K18" t="n">
-        <v>170.1511798394574</v>
+        <v>170.1511798394575</v>
       </c>
       <c r="L18" t="n">
-        <v>228.7892592539408</v>
+        <v>228.7892592539409</v>
       </c>
       <c r="M18" t="n">
-        <v>266.9862742571489</v>
+        <v>266.986274257149</v>
       </c>
       <c r="N18" t="n">
         <v>274.0526064942821</v>
       </c>
       <c r="O18" t="n">
-        <v>250.7045944197258</v>
+        <v>250.7045944197259</v>
       </c>
       <c r="P18" t="n">
         <v>201.2125395293016</v>
@@ -32338,16 +32338,16 @@
         <v>134.5052540415452</v>
       </c>
       <c r="R18" t="n">
-        <v>65.4224978082777</v>
+        <v>65.42249780827771</v>
       </c>
       <c r="S18" t="n">
-        <v>19.57221518918167</v>
+        <v>19.57221518918168</v>
       </c>
       <c r="T18" t="n">
         <v>4.247193803744501</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06932307623086786</v>
+        <v>0.06932307623086788</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8833957036632992</v>
+        <v>0.8833957036632994</v>
       </c>
       <c r="H19" t="n">
-        <v>7.854190892570066</v>
+        <v>7.854190892570068</v>
       </c>
       <c r="I19" t="n">
         <v>26.56611807016541</v>
       </c>
       <c r="J19" t="n">
-        <v>62.45607624899525</v>
+        <v>62.45607624899527</v>
       </c>
       <c r="K19" t="n">
-        <v>102.6345190256087</v>
+        <v>102.6345190256088</v>
       </c>
       <c r="L19" t="n">
         <v>131.3368485246327</v>
@@ -32408,16 +32408,16 @@
         <v>135.1836352705848</v>
       </c>
       <c r="O19" t="n">
-        <v>124.8639672777907</v>
+        <v>124.8639672777908</v>
       </c>
       <c r="P19" t="n">
-        <v>106.8426949230593</v>
+        <v>106.8426949230594</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.97234387675137</v>
+        <v>73.97234387675138</v>
       </c>
       <c r="R19" t="n">
-        <v>39.72068318471524</v>
+        <v>39.72068318471526</v>
       </c>
       <c r="S19" t="n">
         <v>15.39517785384131</v>
@@ -32426,7 +32426,7 @@
         <v>3.774508915652278</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04818522019981638</v>
+        <v>0.04818522019981639</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,13 +32466,13 @@
         <v>1.969379184046093</v>
       </c>
       <c r="H20" t="n">
-        <v>20.16890456861205</v>
+        <v>20.16890456861206</v>
       </c>
       <c r="I20" t="n">
-        <v>75.92449099293707</v>
+        <v>75.92449099293709</v>
       </c>
       <c r="J20" t="n">
-        <v>167.1485965219322</v>
+        <v>167.1485965219323</v>
       </c>
       <c r="K20" t="n">
         <v>250.5124173826034</v>
@@ -32484,7 +32484,7 @@
         <v>345.8057526506338</v>
       </c>
       <c r="N20" t="n">
-        <v>351.4012512573048</v>
+        <v>351.4012512573049</v>
       </c>
       <c r="O20" t="n">
         <v>331.8182369959464</v>
@@ -32499,10 +32499,10 @@
         <v>123.7090151698355</v>
       </c>
       <c r="S20" t="n">
-        <v>44.87722815645039</v>
+        <v>44.8772281564504</v>
       </c>
       <c r="T20" t="n">
-        <v>8.620957378161776</v>
+        <v>8.620957378161778</v>
       </c>
       <c r="U20" t="n">
         <v>0.1575503347236874</v>
@@ -32548,25 +32548,25 @@
         <v>10.1766275906914</v>
       </c>
       <c r="I21" t="n">
-        <v>36.27907656082083</v>
+        <v>36.27907656082085</v>
       </c>
       <c r="J21" t="n">
-        <v>99.5525590059416</v>
+        <v>99.55255900594163</v>
       </c>
       <c r="K21" t="n">
-        <v>170.1511798394574</v>
+        <v>170.1511798394575</v>
       </c>
       <c r="L21" t="n">
-        <v>228.7892592539408</v>
+        <v>228.7892592539409</v>
       </c>
       <c r="M21" t="n">
-        <v>266.9862742571489</v>
+        <v>266.986274257149</v>
       </c>
       <c r="N21" t="n">
         <v>274.0526064942821</v>
       </c>
       <c r="O21" t="n">
-        <v>250.7045944197258</v>
+        <v>250.7045944197259</v>
       </c>
       <c r="P21" t="n">
         <v>201.2125395293016</v>
@@ -32575,16 +32575,16 @@
         <v>134.5052540415452</v>
       </c>
       <c r="R21" t="n">
-        <v>65.4224978082777</v>
+        <v>65.42249780827771</v>
       </c>
       <c r="S21" t="n">
-        <v>19.57221518918167</v>
+        <v>19.57221518918168</v>
       </c>
       <c r="T21" t="n">
         <v>4.247193803744501</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06932307623086786</v>
+        <v>0.06932307623086788</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8833957036632992</v>
+        <v>0.8833957036632994</v>
       </c>
       <c r="H22" t="n">
-        <v>7.854190892570066</v>
+        <v>7.854190892570068</v>
       </c>
       <c r="I22" t="n">
         <v>26.56611807016541</v>
       </c>
       <c r="J22" t="n">
-        <v>62.45607624899525</v>
+        <v>62.45607624899527</v>
       </c>
       <c r="K22" t="n">
-        <v>102.6345190256087</v>
+        <v>102.6345190256088</v>
       </c>
       <c r="L22" t="n">
         <v>131.3368485246327</v>
@@ -32645,16 +32645,16 @@
         <v>135.1836352705848</v>
       </c>
       <c r="O22" t="n">
-        <v>124.8639672777907</v>
+        <v>124.8639672777908</v>
       </c>
       <c r="P22" t="n">
-        <v>106.8426949230593</v>
+        <v>106.8426949230594</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.97234387675137</v>
+        <v>73.97234387675138</v>
       </c>
       <c r="R22" t="n">
-        <v>39.72068318471524</v>
+        <v>39.72068318471526</v>
       </c>
       <c r="S22" t="n">
         <v>15.39517785384131</v>
@@ -32663,7 +32663,7 @@
         <v>3.774508915652278</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04818522019981638</v>
+        <v>0.04818522019981639</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,13 +32703,13 @@
         <v>1.969379184046093</v>
       </c>
       <c r="H23" t="n">
-        <v>20.16890456861205</v>
+        <v>20.16890456861206</v>
       </c>
       <c r="I23" t="n">
-        <v>75.92449099293707</v>
+        <v>75.92449099293709</v>
       </c>
       <c r="J23" t="n">
-        <v>167.1485965219322</v>
+        <v>167.1485965219323</v>
       </c>
       <c r="K23" t="n">
         <v>250.5124173826034</v>
@@ -32721,7 +32721,7 @@
         <v>345.8057526506338</v>
       </c>
       <c r="N23" t="n">
-        <v>351.4012512573048</v>
+        <v>351.4012512573049</v>
       </c>
       <c r="O23" t="n">
         <v>331.8182369959464</v>
@@ -32736,10 +32736,10 @@
         <v>123.7090151698355</v>
       </c>
       <c r="S23" t="n">
-        <v>44.87722815645039</v>
+        <v>44.8772281564504</v>
       </c>
       <c r="T23" t="n">
-        <v>8.620957378161776</v>
+        <v>8.620957378161778</v>
       </c>
       <c r="U23" t="n">
         <v>0.1575503347236874</v>
@@ -32785,25 +32785,25 @@
         <v>10.1766275906914</v>
       </c>
       <c r="I24" t="n">
-        <v>36.27907656082083</v>
+        <v>36.27907656082085</v>
       </c>
       <c r="J24" t="n">
-        <v>99.5525590059416</v>
+        <v>99.55255900594163</v>
       </c>
       <c r="K24" t="n">
-        <v>170.1511798394574</v>
+        <v>170.1511798394575</v>
       </c>
       <c r="L24" t="n">
-        <v>228.7892592539408</v>
+        <v>228.7892592539409</v>
       </c>
       <c r="M24" t="n">
-        <v>266.9862742571489</v>
+        <v>266.986274257149</v>
       </c>
       <c r="N24" t="n">
         <v>274.0526064942821</v>
       </c>
       <c r="O24" t="n">
-        <v>250.7045944197258</v>
+        <v>250.7045944197259</v>
       </c>
       <c r="P24" t="n">
         <v>201.2125395293016</v>
@@ -32812,16 +32812,16 @@
         <v>134.5052540415452</v>
       </c>
       <c r="R24" t="n">
-        <v>65.4224978082777</v>
+        <v>65.42249780827771</v>
       </c>
       <c r="S24" t="n">
-        <v>19.57221518918167</v>
+        <v>19.57221518918168</v>
       </c>
       <c r="T24" t="n">
         <v>4.247193803744501</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06932307623086786</v>
+        <v>0.06932307623086788</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8833957036632992</v>
+        <v>0.8833957036632994</v>
       </c>
       <c r="H25" t="n">
-        <v>7.854190892570066</v>
+        <v>7.854190892570068</v>
       </c>
       <c r="I25" t="n">
         <v>26.56611807016541</v>
       </c>
       <c r="J25" t="n">
-        <v>62.45607624899525</v>
+        <v>62.45607624899527</v>
       </c>
       <c r="K25" t="n">
-        <v>102.6345190256087</v>
+        <v>102.6345190256088</v>
       </c>
       <c r="L25" t="n">
         <v>131.3368485246327</v>
@@ -32882,16 +32882,16 @@
         <v>135.1836352705848</v>
       </c>
       <c r="O25" t="n">
-        <v>124.8639672777907</v>
+        <v>124.8639672777908</v>
       </c>
       <c r="P25" t="n">
-        <v>106.8426949230593</v>
+        <v>106.8426949230594</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.97234387675137</v>
+        <v>73.97234387675138</v>
       </c>
       <c r="R25" t="n">
-        <v>39.72068318471524</v>
+        <v>39.72068318471526</v>
       </c>
       <c r="S25" t="n">
         <v>15.39517785384131</v>
@@ -32900,7 +32900,7 @@
         <v>3.774508915652278</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04818522019981638</v>
+        <v>0.04818522019981639</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,13 +32940,13 @@
         <v>1.969379184046093</v>
       </c>
       <c r="H26" t="n">
-        <v>20.16890456861205</v>
+        <v>20.16890456861206</v>
       </c>
       <c r="I26" t="n">
-        <v>75.92449099293707</v>
+        <v>75.92449099293709</v>
       </c>
       <c r="J26" t="n">
-        <v>167.1485965219322</v>
+        <v>167.1485965219323</v>
       </c>
       <c r="K26" t="n">
         <v>250.5124173826034</v>
@@ -32958,7 +32958,7 @@
         <v>345.8057526506338</v>
       </c>
       <c r="N26" t="n">
-        <v>351.4012512573048</v>
+        <v>351.4012512573049</v>
       </c>
       <c r="O26" t="n">
         <v>331.8182369959464</v>
@@ -32973,10 +32973,10 @@
         <v>123.7090151698355</v>
       </c>
       <c r="S26" t="n">
-        <v>44.87722815645039</v>
+        <v>44.8772281564504</v>
       </c>
       <c r="T26" t="n">
-        <v>8.620957378161776</v>
+        <v>8.620957378161778</v>
       </c>
       <c r="U26" t="n">
         <v>0.1575503347236874</v>
@@ -33022,25 +33022,25 @@
         <v>10.1766275906914</v>
       </c>
       <c r="I27" t="n">
-        <v>36.27907656082083</v>
+        <v>36.27907656082085</v>
       </c>
       <c r="J27" t="n">
-        <v>99.5525590059416</v>
+        <v>99.55255900594163</v>
       </c>
       <c r="K27" t="n">
-        <v>170.1511798394574</v>
+        <v>170.1511798394575</v>
       </c>
       <c r="L27" t="n">
-        <v>228.7892592539408</v>
+        <v>228.7892592539409</v>
       </c>
       <c r="M27" t="n">
-        <v>266.9862742571489</v>
+        <v>266.986274257149</v>
       </c>
       <c r="N27" t="n">
         <v>274.0526064942821</v>
       </c>
       <c r="O27" t="n">
-        <v>250.7045944197258</v>
+        <v>250.7045944197259</v>
       </c>
       <c r="P27" t="n">
         <v>201.2125395293016</v>
@@ -33049,16 +33049,16 @@
         <v>134.5052540415452</v>
       </c>
       <c r="R27" t="n">
-        <v>65.4224978082777</v>
+        <v>65.42249780827771</v>
       </c>
       <c r="S27" t="n">
-        <v>19.57221518918167</v>
+        <v>19.57221518918168</v>
       </c>
       <c r="T27" t="n">
         <v>4.247193803744501</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06932307623086786</v>
+        <v>0.06932307623086788</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8833957036632992</v>
+        <v>0.8833957036632994</v>
       </c>
       <c r="H28" t="n">
-        <v>7.854190892570066</v>
+        <v>7.854190892570068</v>
       </c>
       <c r="I28" t="n">
         <v>26.56611807016541</v>
       </c>
       <c r="J28" t="n">
-        <v>62.45607624899525</v>
+        <v>62.45607624899527</v>
       </c>
       <c r="K28" t="n">
-        <v>102.6345190256087</v>
+        <v>102.6345190256088</v>
       </c>
       <c r="L28" t="n">
         <v>131.3368485246327</v>
@@ -33119,16 +33119,16 @@
         <v>135.1836352705848</v>
       </c>
       <c r="O28" t="n">
-        <v>124.8639672777907</v>
+        <v>124.8639672777908</v>
       </c>
       <c r="P28" t="n">
-        <v>106.8426949230593</v>
+        <v>106.8426949230594</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.97234387675137</v>
+        <v>73.97234387675138</v>
       </c>
       <c r="R28" t="n">
-        <v>39.72068318471524</v>
+        <v>39.72068318471526</v>
       </c>
       <c r="S28" t="n">
         <v>15.39517785384131</v>
@@ -33137,7 +33137,7 @@
         <v>3.774508915652278</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04818522019981638</v>
+        <v>0.04818522019981639</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,13 +33177,13 @@
         <v>1.969379184046093</v>
       </c>
       <c r="H29" t="n">
-        <v>20.16890456861205</v>
+        <v>20.16890456861206</v>
       </c>
       <c r="I29" t="n">
-        <v>75.92449099293707</v>
+        <v>75.92449099293709</v>
       </c>
       <c r="J29" t="n">
-        <v>167.1485965219322</v>
+        <v>167.1485965219323</v>
       </c>
       <c r="K29" t="n">
         <v>250.5124173826034</v>
@@ -33195,7 +33195,7 @@
         <v>345.8057526506338</v>
       </c>
       <c r="N29" t="n">
-        <v>351.4012512573048</v>
+        <v>351.4012512573049</v>
       </c>
       <c r="O29" t="n">
         <v>331.8182369959464</v>
@@ -33210,10 +33210,10 @@
         <v>123.7090151698355</v>
       </c>
       <c r="S29" t="n">
-        <v>44.87722815645039</v>
+        <v>44.8772281564504</v>
       </c>
       <c r="T29" t="n">
-        <v>8.620957378161776</v>
+        <v>8.620957378161778</v>
       </c>
       <c r="U29" t="n">
         <v>0.1575503347236874</v>
@@ -33259,25 +33259,25 @@
         <v>10.1766275906914</v>
       </c>
       <c r="I30" t="n">
-        <v>36.27907656082083</v>
+        <v>36.27907656082085</v>
       </c>
       <c r="J30" t="n">
-        <v>99.5525590059416</v>
+        <v>99.55255900594163</v>
       </c>
       <c r="K30" t="n">
-        <v>170.1511798394574</v>
+        <v>170.1511798394575</v>
       </c>
       <c r="L30" t="n">
-        <v>228.7892592539408</v>
+        <v>228.7892592539409</v>
       </c>
       <c r="M30" t="n">
-        <v>266.9862742571489</v>
+        <v>266.986274257149</v>
       </c>
       <c r="N30" t="n">
         <v>274.0526064942821</v>
       </c>
       <c r="O30" t="n">
-        <v>250.7045944197258</v>
+        <v>250.7045944197259</v>
       </c>
       <c r="P30" t="n">
         <v>201.2125395293016</v>
@@ -33286,16 +33286,16 @@
         <v>134.5052540415452</v>
       </c>
       <c r="R30" t="n">
-        <v>65.4224978082777</v>
+        <v>65.42249780827771</v>
       </c>
       <c r="S30" t="n">
-        <v>19.57221518918167</v>
+        <v>19.57221518918168</v>
       </c>
       <c r="T30" t="n">
         <v>4.247193803744501</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06932307623086786</v>
+        <v>0.06932307623086788</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8833957036632992</v>
+        <v>0.8833957036632994</v>
       </c>
       <c r="H31" t="n">
-        <v>7.854190892570066</v>
+        <v>7.854190892570068</v>
       </c>
       <c r="I31" t="n">
         <v>26.56611807016541</v>
       </c>
       <c r="J31" t="n">
-        <v>62.45607624899525</v>
+        <v>62.45607624899527</v>
       </c>
       <c r="K31" t="n">
-        <v>102.6345190256087</v>
+        <v>102.6345190256088</v>
       </c>
       <c r="L31" t="n">
         <v>131.3368485246327</v>
@@ -33356,16 +33356,16 @@
         <v>135.1836352705848</v>
       </c>
       <c r="O31" t="n">
-        <v>124.8639672777907</v>
+        <v>124.8639672777908</v>
       </c>
       <c r="P31" t="n">
-        <v>106.8426949230593</v>
+        <v>106.8426949230594</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.97234387675137</v>
+        <v>73.97234387675138</v>
       </c>
       <c r="R31" t="n">
-        <v>39.72068318471524</v>
+        <v>39.72068318471526</v>
       </c>
       <c r="S31" t="n">
         <v>15.39517785384131</v>
@@ -33374,7 +33374,7 @@
         <v>3.774508915652278</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04818522019981638</v>
+        <v>0.04818522019981639</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,13 +33414,13 @@
         <v>1.969379184046093</v>
       </c>
       <c r="H32" t="n">
-        <v>20.16890456861205</v>
+        <v>20.16890456861206</v>
       </c>
       <c r="I32" t="n">
-        <v>75.92449099293707</v>
+        <v>75.92449099293709</v>
       </c>
       <c r="J32" t="n">
-        <v>167.1485965219322</v>
+        <v>167.1485965219323</v>
       </c>
       <c r="K32" t="n">
         <v>250.5124173826034</v>
@@ -33432,7 +33432,7 @@
         <v>345.8057526506338</v>
       </c>
       <c r="N32" t="n">
-        <v>351.4012512573048</v>
+        <v>351.4012512573049</v>
       </c>
       <c r="O32" t="n">
         <v>331.8182369959464</v>
@@ -33447,10 +33447,10 @@
         <v>123.7090151698355</v>
       </c>
       <c r="S32" t="n">
-        <v>44.87722815645039</v>
+        <v>44.8772281564504</v>
       </c>
       <c r="T32" t="n">
-        <v>8.620957378161776</v>
+        <v>8.620957378161778</v>
       </c>
       <c r="U32" t="n">
         <v>0.1575503347236874</v>
@@ -33496,25 +33496,25 @@
         <v>10.1766275906914</v>
       </c>
       <c r="I33" t="n">
-        <v>36.27907656082083</v>
+        <v>36.27907656082085</v>
       </c>
       <c r="J33" t="n">
-        <v>99.5525590059416</v>
+        <v>99.55255900594163</v>
       </c>
       <c r="K33" t="n">
-        <v>170.1511798394574</v>
+        <v>170.1511798394575</v>
       </c>
       <c r="L33" t="n">
-        <v>228.7892592539408</v>
+        <v>228.7892592539409</v>
       </c>
       <c r="M33" t="n">
-        <v>266.9862742571489</v>
+        <v>266.986274257149</v>
       </c>
       <c r="N33" t="n">
         <v>274.0526064942821</v>
       </c>
       <c r="O33" t="n">
-        <v>250.7045944197258</v>
+        <v>250.7045944197259</v>
       </c>
       <c r="P33" t="n">
         <v>201.2125395293016</v>
@@ -33523,16 +33523,16 @@
         <v>134.5052540415452</v>
       </c>
       <c r="R33" t="n">
-        <v>65.4224978082777</v>
+        <v>65.42249780827771</v>
       </c>
       <c r="S33" t="n">
-        <v>19.57221518918167</v>
+        <v>19.57221518918168</v>
       </c>
       <c r="T33" t="n">
         <v>4.247193803744501</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06932307623086786</v>
+        <v>0.06932307623086788</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8833957036632992</v>
+        <v>0.8833957036632994</v>
       </c>
       <c r="H34" t="n">
-        <v>7.854190892570066</v>
+        <v>7.854190892570068</v>
       </c>
       <c r="I34" t="n">
         <v>26.56611807016541</v>
       </c>
       <c r="J34" t="n">
-        <v>62.45607624899525</v>
+        <v>62.45607624899527</v>
       </c>
       <c r="K34" t="n">
-        <v>102.6345190256087</v>
+        <v>102.6345190256088</v>
       </c>
       <c r="L34" t="n">
         <v>131.3368485246327</v>
@@ -33593,16 +33593,16 @@
         <v>135.1836352705848</v>
       </c>
       <c r="O34" t="n">
-        <v>124.8639672777907</v>
+        <v>124.8639672777908</v>
       </c>
       <c r="P34" t="n">
-        <v>106.8426949230593</v>
+        <v>106.8426949230594</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.97234387675137</v>
+        <v>73.97234387675138</v>
       </c>
       <c r="R34" t="n">
-        <v>39.72068318471524</v>
+        <v>39.72068318471526</v>
       </c>
       <c r="S34" t="n">
         <v>15.39517785384131</v>
@@ -33611,7 +33611,7 @@
         <v>3.774508915652278</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04818522019981638</v>
+        <v>0.04818522019981639</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,13 +33651,13 @@
         <v>1.969379184046093</v>
       </c>
       <c r="H35" t="n">
-        <v>20.16890456861205</v>
+        <v>20.16890456861206</v>
       </c>
       <c r="I35" t="n">
-        <v>75.92449099293707</v>
+        <v>75.92449099293709</v>
       </c>
       <c r="J35" t="n">
-        <v>167.1485965219322</v>
+        <v>167.1485965219323</v>
       </c>
       <c r="K35" t="n">
         <v>250.5124173826034</v>
@@ -33669,7 +33669,7 @@
         <v>345.8057526506338</v>
       </c>
       <c r="N35" t="n">
-        <v>351.4012512573048</v>
+        <v>351.4012512573049</v>
       </c>
       <c r="O35" t="n">
         <v>331.8182369959464</v>
@@ -33684,10 +33684,10 @@
         <v>123.7090151698355</v>
       </c>
       <c r="S35" t="n">
-        <v>44.87722815645039</v>
+        <v>44.8772281564504</v>
       </c>
       <c r="T35" t="n">
-        <v>8.620957378161776</v>
+        <v>8.620957378161778</v>
       </c>
       <c r="U35" t="n">
         <v>0.1575503347236874</v>
@@ -33733,25 +33733,25 @@
         <v>10.1766275906914</v>
       </c>
       <c r="I36" t="n">
-        <v>36.27907656082083</v>
+        <v>36.27907656082085</v>
       </c>
       <c r="J36" t="n">
-        <v>99.5525590059416</v>
+        <v>99.55255900594163</v>
       </c>
       <c r="K36" t="n">
-        <v>170.1511798394574</v>
+        <v>170.1511798394575</v>
       </c>
       <c r="L36" t="n">
-        <v>228.7892592539408</v>
+        <v>228.7892592539409</v>
       </c>
       <c r="M36" t="n">
-        <v>266.9862742571489</v>
+        <v>266.986274257149</v>
       </c>
       <c r="N36" t="n">
         <v>274.0526064942821</v>
       </c>
       <c r="O36" t="n">
-        <v>250.7045944197258</v>
+        <v>250.7045944197259</v>
       </c>
       <c r="P36" t="n">
         <v>201.2125395293016</v>
@@ -33760,16 +33760,16 @@
         <v>134.5052540415452</v>
       </c>
       <c r="R36" t="n">
-        <v>65.4224978082777</v>
+        <v>65.42249780827771</v>
       </c>
       <c r="S36" t="n">
-        <v>19.57221518918167</v>
+        <v>19.57221518918168</v>
       </c>
       <c r="T36" t="n">
         <v>4.247193803744501</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06932307623086786</v>
+        <v>0.06932307623086788</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8833957036632992</v>
+        <v>0.8833957036632994</v>
       </c>
       <c r="H37" t="n">
-        <v>7.854190892570066</v>
+        <v>7.854190892570068</v>
       </c>
       <c r="I37" t="n">
         <v>26.56611807016541</v>
       </c>
       <c r="J37" t="n">
-        <v>62.45607624899525</v>
+        <v>62.45607624899527</v>
       </c>
       <c r="K37" t="n">
-        <v>102.6345190256087</v>
+        <v>102.6345190256088</v>
       </c>
       <c r="L37" t="n">
         <v>131.3368485246327</v>
@@ -33830,16 +33830,16 @@
         <v>135.1836352705848</v>
       </c>
       <c r="O37" t="n">
-        <v>124.8639672777907</v>
+        <v>124.8639672777908</v>
       </c>
       <c r="P37" t="n">
-        <v>106.8426949230593</v>
+        <v>106.8426949230594</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.97234387675137</v>
+        <v>73.97234387675138</v>
       </c>
       <c r="R37" t="n">
-        <v>39.72068318471524</v>
+        <v>39.72068318471526</v>
       </c>
       <c r="S37" t="n">
         <v>15.39517785384131</v>
@@ -33848,7 +33848,7 @@
         <v>3.774508915652278</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04818522019981638</v>
+        <v>0.04818522019981639</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,13 +33888,13 @@
         <v>1.969379184046093</v>
       </c>
       <c r="H38" t="n">
-        <v>20.16890456861205</v>
+        <v>20.16890456861206</v>
       </c>
       <c r="I38" t="n">
-        <v>75.92449099293707</v>
+        <v>75.92449099293709</v>
       </c>
       <c r="J38" t="n">
-        <v>167.1485965219322</v>
+        <v>167.1485965219323</v>
       </c>
       <c r="K38" t="n">
         <v>250.5124173826034</v>
@@ -33906,7 +33906,7 @@
         <v>345.8057526506338</v>
       </c>
       <c r="N38" t="n">
-        <v>351.4012512573048</v>
+        <v>351.4012512573049</v>
       </c>
       <c r="O38" t="n">
         <v>331.8182369959464</v>
@@ -33921,10 +33921,10 @@
         <v>123.7090151698355</v>
       </c>
       <c r="S38" t="n">
-        <v>44.87722815645039</v>
+        <v>44.8772281564504</v>
       </c>
       <c r="T38" t="n">
-        <v>8.620957378161776</v>
+        <v>8.620957378161778</v>
       </c>
       <c r="U38" t="n">
         <v>0.1575503347236874</v>
@@ -33970,25 +33970,25 @@
         <v>10.1766275906914</v>
       </c>
       <c r="I39" t="n">
-        <v>36.27907656082083</v>
+        <v>36.27907656082085</v>
       </c>
       <c r="J39" t="n">
-        <v>99.5525590059416</v>
+        <v>99.55255900594163</v>
       </c>
       <c r="K39" t="n">
-        <v>170.1511798394574</v>
+        <v>170.1511798394575</v>
       </c>
       <c r="L39" t="n">
-        <v>228.7892592539408</v>
+        <v>228.7892592539409</v>
       </c>
       <c r="M39" t="n">
-        <v>266.9862742571489</v>
+        <v>266.986274257149</v>
       </c>
       <c r="N39" t="n">
         <v>274.0526064942821</v>
       </c>
       <c r="O39" t="n">
-        <v>250.7045944197258</v>
+        <v>250.7045944197259</v>
       </c>
       <c r="P39" t="n">
         <v>201.2125395293016</v>
@@ -33997,16 +33997,16 @@
         <v>134.5052540415452</v>
       </c>
       <c r="R39" t="n">
-        <v>65.4224978082777</v>
+        <v>65.42249780827771</v>
       </c>
       <c r="S39" t="n">
-        <v>19.57221518918167</v>
+        <v>19.57221518918168</v>
       </c>
       <c r="T39" t="n">
         <v>4.247193803744501</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06932307623086786</v>
+        <v>0.06932307623086788</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8833957036632992</v>
+        <v>0.8833957036632994</v>
       </c>
       <c r="H40" t="n">
-        <v>7.854190892570066</v>
+        <v>7.854190892570068</v>
       </c>
       <c r="I40" t="n">
         <v>26.56611807016541</v>
       </c>
       <c r="J40" t="n">
-        <v>62.45607624899525</v>
+        <v>62.45607624899527</v>
       </c>
       <c r="K40" t="n">
-        <v>102.6345190256087</v>
+        <v>102.6345190256088</v>
       </c>
       <c r="L40" t="n">
         <v>131.3368485246327</v>
@@ -34067,16 +34067,16 @@
         <v>135.1836352705848</v>
       </c>
       <c r="O40" t="n">
-        <v>124.8639672777907</v>
+        <v>124.8639672777908</v>
       </c>
       <c r="P40" t="n">
-        <v>106.8426949230593</v>
+        <v>106.8426949230594</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.97234387675137</v>
+        <v>73.97234387675138</v>
       </c>
       <c r="R40" t="n">
-        <v>39.72068318471524</v>
+        <v>39.72068318471526</v>
       </c>
       <c r="S40" t="n">
         <v>15.39517785384131</v>
@@ -34085,7 +34085,7 @@
         <v>3.774508915652278</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04818522019981638</v>
+        <v>0.04818522019981639</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,13 +34125,13 @@
         <v>1.969379184046093</v>
       </c>
       <c r="H41" t="n">
-        <v>20.16890456861205</v>
+        <v>20.16890456861206</v>
       </c>
       <c r="I41" t="n">
-        <v>75.92449099293707</v>
+        <v>75.92449099293709</v>
       </c>
       <c r="J41" t="n">
-        <v>167.1485965219322</v>
+        <v>167.1485965219323</v>
       </c>
       <c r="K41" t="n">
         <v>250.5124173826034</v>
@@ -34143,7 +34143,7 @@
         <v>345.8057526506338</v>
       </c>
       <c r="N41" t="n">
-        <v>351.4012512573048</v>
+        <v>351.4012512573049</v>
       </c>
       <c r="O41" t="n">
         <v>331.8182369959464</v>
@@ -34158,10 +34158,10 @@
         <v>123.7090151698355</v>
       </c>
       <c r="S41" t="n">
-        <v>44.87722815645039</v>
+        <v>44.8772281564504</v>
       </c>
       <c r="T41" t="n">
-        <v>8.620957378161776</v>
+        <v>8.620957378161778</v>
       </c>
       <c r="U41" t="n">
         <v>0.1575503347236874</v>
@@ -34207,25 +34207,25 @@
         <v>10.1766275906914</v>
       </c>
       <c r="I42" t="n">
-        <v>36.27907656082083</v>
+        <v>36.27907656082085</v>
       </c>
       <c r="J42" t="n">
-        <v>99.5525590059416</v>
+        <v>99.55255900594163</v>
       </c>
       <c r="K42" t="n">
-        <v>170.1511798394574</v>
+        <v>170.1511798394575</v>
       </c>
       <c r="L42" t="n">
-        <v>228.7892592539408</v>
+        <v>228.7892592539409</v>
       </c>
       <c r="M42" t="n">
-        <v>266.9862742571489</v>
+        <v>266.986274257149</v>
       </c>
       <c r="N42" t="n">
         <v>274.0526064942821</v>
       </c>
       <c r="O42" t="n">
-        <v>250.7045944197258</v>
+        <v>250.7045944197259</v>
       </c>
       <c r="P42" t="n">
         <v>201.2125395293016</v>
@@ -34234,16 +34234,16 @@
         <v>134.5052540415452</v>
       </c>
       <c r="R42" t="n">
-        <v>65.4224978082777</v>
+        <v>65.42249780827771</v>
       </c>
       <c r="S42" t="n">
-        <v>19.57221518918167</v>
+        <v>19.57221518918168</v>
       </c>
       <c r="T42" t="n">
         <v>4.247193803744501</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06932307623086786</v>
+        <v>0.06932307623086788</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8833957036632992</v>
+        <v>0.8833957036632994</v>
       </c>
       <c r="H43" t="n">
-        <v>7.854190892570066</v>
+        <v>7.854190892570068</v>
       </c>
       <c r="I43" t="n">
         <v>26.56611807016541</v>
       </c>
       <c r="J43" t="n">
-        <v>62.45607624899525</v>
+        <v>62.45607624899527</v>
       </c>
       <c r="K43" t="n">
-        <v>102.6345190256087</v>
+        <v>102.6345190256088</v>
       </c>
       <c r="L43" t="n">
         <v>131.3368485246327</v>
@@ -34304,16 +34304,16 @@
         <v>135.1836352705848</v>
       </c>
       <c r="O43" t="n">
-        <v>124.8639672777907</v>
+        <v>124.8639672777908</v>
       </c>
       <c r="P43" t="n">
-        <v>106.8426949230593</v>
+        <v>106.8426949230594</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.97234387675137</v>
+        <v>73.97234387675138</v>
       </c>
       <c r="R43" t="n">
-        <v>39.72068318471524</v>
+        <v>39.72068318471526</v>
       </c>
       <c r="S43" t="n">
         <v>15.39517785384131</v>
@@ -34322,7 +34322,7 @@
         <v>3.774508915652278</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04818522019981638</v>
+        <v>0.04818522019981639</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,16 +34362,16 @@
         <v>1.969379184046093</v>
       </c>
       <c r="H44" t="n">
-        <v>20.16890456861205</v>
+        <v>20.16890456861206</v>
       </c>
       <c r="I44" t="n">
-        <v>75.92449099293707</v>
+        <v>75.92449099293709</v>
       </c>
       <c r="J44" t="n">
-        <v>167.1485965219322</v>
+        <v>167.1485965219323</v>
       </c>
       <c r="K44" t="n">
-        <v>250.5124173826034</v>
+        <v>250.5124173826036</v>
       </c>
       <c r="L44" t="n">
         <v>310.7828055863541</v>
@@ -34380,7 +34380,7 @@
         <v>345.8057526506338</v>
       </c>
       <c r="N44" t="n">
-        <v>351.4012512573048</v>
+        <v>351.4012512573049</v>
       </c>
       <c r="O44" t="n">
         <v>331.8182369959464</v>
@@ -34395,10 +34395,10 @@
         <v>123.7090151698355</v>
       </c>
       <c r="S44" t="n">
-        <v>44.87722815645039</v>
+        <v>44.8772281564504</v>
       </c>
       <c r="T44" t="n">
-        <v>8.620957378161776</v>
+        <v>8.620957378161778</v>
       </c>
       <c r="U44" t="n">
         <v>0.1575503347236874</v>
@@ -34444,25 +34444,25 @@
         <v>10.1766275906914</v>
       </c>
       <c r="I45" t="n">
-        <v>36.27907656082083</v>
+        <v>36.27907656082085</v>
       </c>
       <c r="J45" t="n">
-        <v>99.5525590059416</v>
+        <v>99.55255900594163</v>
       </c>
       <c r="K45" t="n">
-        <v>170.1511798394574</v>
+        <v>170.1511798394575</v>
       </c>
       <c r="L45" t="n">
-        <v>228.7892592539408</v>
+        <v>228.7892592539409</v>
       </c>
       <c r="M45" t="n">
-        <v>266.9862742571489</v>
+        <v>266.986274257149</v>
       </c>
       <c r="N45" t="n">
         <v>274.0526064942821</v>
       </c>
       <c r="O45" t="n">
-        <v>250.7045944197258</v>
+        <v>250.7045944197259</v>
       </c>
       <c r="P45" t="n">
         <v>201.2125395293016</v>
@@ -34471,16 +34471,16 @@
         <v>134.5052540415452</v>
       </c>
       <c r="R45" t="n">
-        <v>65.4224978082777</v>
+        <v>65.42249780827771</v>
       </c>
       <c r="S45" t="n">
-        <v>19.57221518918167</v>
+        <v>19.57221518918168</v>
       </c>
       <c r="T45" t="n">
         <v>4.247193803744501</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06932307623086786</v>
+        <v>0.06932307623086788</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8833957036632992</v>
+        <v>0.8833957036632994</v>
       </c>
       <c r="H46" t="n">
-        <v>7.854190892570066</v>
+        <v>7.854190892570068</v>
       </c>
       <c r="I46" t="n">
         <v>26.56611807016541</v>
       </c>
       <c r="J46" t="n">
-        <v>62.45607624899525</v>
+        <v>62.45607624899527</v>
       </c>
       <c r="K46" t="n">
-        <v>102.6345190256087</v>
+        <v>102.6345190256088</v>
       </c>
       <c r="L46" t="n">
         <v>131.3368485246327</v>
@@ -34541,16 +34541,16 @@
         <v>135.1836352705848</v>
       </c>
       <c r="O46" t="n">
-        <v>124.8639672777907</v>
+        <v>124.8639672777908</v>
       </c>
       <c r="P46" t="n">
-        <v>106.8426949230593</v>
+        <v>106.8426949230594</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.97234387675137</v>
+        <v>73.97234387675138</v>
       </c>
       <c r="R46" t="n">
-        <v>39.72068318471524</v>
+        <v>39.72068318471526</v>
       </c>
       <c r="S46" t="n">
         <v>15.39517785384131</v>
@@ -34559,7 +34559,7 @@
         <v>3.774508915652278</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04818522019981638</v>
+        <v>0.04818522019981639</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.37658844897358</v>
+        <v>41.37658844897359</v>
       </c>
       <c r="J11" t="n">
         <v>137.7286370363457</v>
@@ -35421,7 +35421,7 @@
         <v>308.374489751202</v>
       </c>
       <c r="N11" t="n">
-        <v>314.1216284228588</v>
+        <v>314.1216284228589</v>
       </c>
       <c r="O11" t="n">
         <v>294.4272776399224</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.10668981082084</v>
+        <v>43.80093813850958</v>
       </c>
       <c r="J12" t="n">
-        <v>253.390287875581</v>
+        <v>229.696039547892</v>
       </c>
       <c r="K12" t="n">
         <v>147.7519460061241</v>
@@ -35570,25 +35570,25 @@
         <v>41.8193202650934</v>
       </c>
       <c r="K13" t="n">
-        <v>81.66986457289676</v>
+        <v>331.4502778193837</v>
       </c>
       <c r="L13" t="n">
         <v>109.4180886289315</v>
       </c>
       <c r="M13" t="n">
-        <v>258.1832142626913</v>
+        <v>528.8654539554806</v>
       </c>
       <c r="N13" t="n">
         <v>516.488191711025</v>
       </c>
       <c r="O13" t="n">
-        <v>483.8822790755312</v>
+        <v>116.3221487401941</v>
       </c>
       <c r="P13" t="n">
         <v>400.3772524199291</v>
       </c>
       <c r="Q13" t="n">
-        <v>202.2553037159049</v>
+        <v>49.35278111196644</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.37658844897356</v>
+        <v>41.37658844897358</v>
       </c>
       <c r="J14" t="n">
         <v>137.7286370363457</v>
       </c>
       <c r="K14" t="n">
-        <v>214.747816587794</v>
+        <v>214.7478165877941</v>
       </c>
       <c r="L14" t="n">
-        <v>272.4707631537311</v>
+        <v>272.4707631537312</v>
       </c>
       <c r="M14" t="n">
         <v>308.374489751202</v>
       </c>
       <c r="N14" t="n">
-        <v>314.1216284228587</v>
+        <v>314.1216284228588</v>
       </c>
       <c r="O14" t="n">
-        <v>294.4272776399223</v>
+        <v>294.4272776399224</v>
       </c>
       <c r="P14" t="n">
         <v>245.6238265795772</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5461217565596</v>
+        <v>176.5461217565597</v>
       </c>
       <c r="R14" t="n">
-        <v>88.67636527503902</v>
+        <v>88.67636527503905</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.10668981082083</v>
+        <v>43.80093813850957</v>
       </c>
       <c r="J15" t="n">
-        <v>78.94144467260827</v>
+        <v>229.6960395478922</v>
       </c>
       <c r="K15" t="n">
         <v>147.7519460061241</v>
@@ -35737,13 +35737,13 @@
         <v>243.889493744821</v>
       </c>
       <c r="N15" t="n">
-        <v>252.7095782807404</v>
+        <v>252.7095782807405</v>
       </c>
       <c r="O15" t="n">
-        <v>401.9815479004764</v>
+        <v>227.5327046975036</v>
       </c>
       <c r="P15" t="n">
-        <v>179.4416983244729</v>
+        <v>179.441698324473</v>
       </c>
       <c r="Q15" t="n">
         <v>111.7582157525667</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.81932026509338</v>
+        <v>41.8193202650934</v>
       </c>
       <c r="K16" t="n">
-        <v>81.66986457289674</v>
+        <v>81.66986457289676</v>
       </c>
       <c r="L16" t="n">
-        <v>109.4180886289315</v>
+        <v>307.5537296949377</v>
       </c>
       <c r="M16" t="n">
-        <v>528.8654539554803</v>
+        <v>528.8654539554806</v>
       </c>
       <c r="N16" t="n">
-        <v>516.4881917110249</v>
+        <v>516.488191711025</v>
       </c>
       <c r="O16" t="n">
         <v>483.8822790755312</v>
       </c>
       <c r="P16" t="n">
-        <v>282.5975353310786</v>
+        <v>84.46189426507287</v>
       </c>
       <c r="Q16" t="n">
         <v>49.35278111196642</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.37658844897356</v>
+        <v>41.37658844897359</v>
       </c>
       <c r="J17" t="n">
         <v>137.7286370363457</v>
       </c>
       <c r="K17" t="n">
-        <v>214.747816587794</v>
+        <v>214.7478165877941</v>
       </c>
       <c r="L17" t="n">
-        <v>272.4707631537311</v>
+        <v>272.4707631537312</v>
       </c>
       <c r="M17" t="n">
         <v>308.374489751202</v>
       </c>
       <c r="N17" t="n">
-        <v>314.1216284228587</v>
+        <v>314.1216284228589</v>
       </c>
       <c r="O17" t="n">
-        <v>294.4272776399223</v>
+        <v>294.4272776399224</v>
       </c>
       <c r="P17" t="n">
         <v>245.6238265795772</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5461217565596</v>
+        <v>176.5461217565597</v>
       </c>
       <c r="R17" t="n">
-        <v>88.67636527503902</v>
+        <v>88.67636527503905</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.10668981082083</v>
+        <v>43.80093813850958</v>
       </c>
       <c r="J18" t="n">
-        <v>78.94144467260827</v>
+        <v>229.696039547892</v>
       </c>
       <c r="K18" t="n">
         <v>147.7519460061241</v>
@@ -35974,19 +35974,19 @@
         <v>243.889493744821</v>
       </c>
       <c r="N18" t="n">
-        <v>252.7095782807404</v>
+        <v>252.7095782807405</v>
       </c>
       <c r="O18" t="n">
-        <v>508.5022552589672</v>
+        <v>227.5327046975036</v>
       </c>
       <c r="P18" t="n">
-        <v>179.4416983244729</v>
+        <v>179.441698324473</v>
       </c>
       <c r="Q18" t="n">
         <v>111.7582157525667</v>
       </c>
       <c r="R18" t="n">
-        <v>41.74957841413355</v>
+        <v>148.2702857726243</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>41.81932026509338</v>
+        <v>120.528124960266</v>
       </c>
       <c r="K19" t="n">
         <v>331.4502778193837</v>
       </c>
       <c r="L19" t="n">
-        <v>109.4180886289315</v>
+        <v>489.6088902361689</v>
       </c>
       <c r="M19" t="n">
-        <v>389.9203003123695</v>
+        <v>115.900852092753</v>
       </c>
       <c r="N19" t="n">
-        <v>516.4881917110249</v>
+        <v>516.488191711025</v>
       </c>
       <c r="O19" t="n">
-        <v>102.3647797793663</v>
+        <v>386.3025024553683</v>
       </c>
       <c r="P19" t="n">
-        <v>400.3772524199291</v>
+        <v>84.46189426507289</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.2553037159049</v>
+        <v>49.35278111196644</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.37658844897356</v>
+        <v>41.37658844897359</v>
       </c>
       <c r="J20" t="n">
         <v>137.7286370363457</v>
       </c>
       <c r="K20" t="n">
-        <v>214.747816587794</v>
+        <v>214.7478165877941</v>
       </c>
       <c r="L20" t="n">
-        <v>272.4707631537311</v>
+        <v>272.4707631537312</v>
       </c>
       <c r="M20" t="n">
-        <v>308.3744897512017</v>
+        <v>308.374489751202</v>
       </c>
       <c r="N20" t="n">
-        <v>314.1216284228587</v>
+        <v>314.1216284228589</v>
       </c>
       <c r="O20" t="n">
-        <v>294.4272776399223</v>
+        <v>294.4272776399224</v>
       </c>
       <c r="P20" t="n">
         <v>245.6238265795772</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.5461217565596</v>
+        <v>176.5461217565598</v>
       </c>
       <c r="R20" t="n">
-        <v>88.67636527503902</v>
+        <v>88.67636527503905</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>43.80093813850957</v>
+        <v>43.80093813850958</v>
       </c>
       <c r="J21" t="n">
-        <v>78.94144467260827</v>
+        <v>229.696039547892</v>
       </c>
       <c r="K21" t="n">
         <v>147.7519460061241</v>
@@ -36211,19 +36211,19 @@
         <v>243.889493744821</v>
       </c>
       <c r="N21" t="n">
-        <v>252.7095782807404</v>
+        <v>252.7095782807405</v>
       </c>
       <c r="O21" t="n">
-        <v>484.8080069312784</v>
+        <v>227.5327046975036</v>
       </c>
       <c r="P21" t="n">
-        <v>179.4416983244729</v>
+        <v>179.441698324473</v>
       </c>
       <c r="Q21" t="n">
         <v>111.7582157525667</v>
       </c>
       <c r="R21" t="n">
-        <v>41.74957841413355</v>
+        <v>148.2702857726243</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>41.81932026509338</v>
+        <v>120.528124960266</v>
       </c>
       <c r="K22" t="n">
         <v>331.4502778193837</v>
       </c>
       <c r="L22" t="n">
-        <v>489.6088902361688</v>
+        <v>381.1179691693188</v>
       </c>
       <c r="M22" t="n">
-        <v>499.0833375838021</v>
+        <v>528.8654539554806</v>
       </c>
       <c r="N22" t="n">
         <v>114.4347342949844</v>
@@ -36296,10 +36296,10 @@
         <v>483.8822790755312</v>
       </c>
       <c r="P22" t="n">
-        <v>84.46189426507286</v>
+        <v>84.46189426507289</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.35278111196642</v>
+        <v>49.35278111196644</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.37658844897356</v>
+        <v>41.37658844897359</v>
       </c>
       <c r="J23" t="n">
-        <v>137.9882061595426</v>
+        <v>533.4147165389984</v>
       </c>
       <c r="K23" t="n">
-        <v>214.747816587794</v>
+        <v>214.7478165877941</v>
       </c>
       <c r="L23" t="n">
-        <v>272.4707631537311</v>
+        <v>272.4707631537312</v>
       </c>
       <c r="M23" t="n">
-        <v>751.1022659510969</v>
+        <v>308.374489751202</v>
       </c>
       <c r="N23" t="n">
-        <v>751.1022659510969</v>
+        <v>314.1216284228589</v>
       </c>
       <c r="O23" t="n">
-        <v>294.4272776399223</v>
+        <v>294.4272776399224</v>
       </c>
       <c r="P23" t="n">
         <v>245.6238265795772</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.5461217565596</v>
+        <v>507.0516026024575</v>
       </c>
       <c r="R23" t="n">
-        <v>88.67636527503902</v>
+        <v>242.4527877778179</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.10668981082083</v>
+        <v>43.80093813850958</v>
       </c>
       <c r="J24" t="n">
-        <v>78.94144467260827</v>
+        <v>229.696039547892</v>
       </c>
       <c r="K24" t="n">
         <v>147.7519460061241</v>
@@ -36448,19 +36448,19 @@
         <v>243.889493744821</v>
       </c>
       <c r="N24" t="n">
-        <v>533.6791288422041</v>
+        <v>252.7095782807405</v>
       </c>
       <c r="O24" t="n">
         <v>227.5327046975036</v>
       </c>
       <c r="P24" t="n">
-        <v>179.4416983244729</v>
+        <v>179.441698324473</v>
       </c>
       <c r="Q24" t="n">
         <v>111.7582157525667</v>
       </c>
       <c r="R24" t="n">
-        <v>41.74957841413355</v>
+        <v>148.2702857726243</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,22 +36521,22 @@
         <v>331.4502778193837</v>
       </c>
       <c r="L25" t="n">
-        <v>489.6088902361688</v>
+        <v>489.6088902361689</v>
       </c>
       <c r="M25" t="n">
         <v>533.6134586208558</v>
       </c>
       <c r="N25" t="n">
-        <v>516.4881917110249</v>
+        <v>516.488191711025</v>
       </c>
       <c r="O25" t="n">
         <v>483.8822790755312</v>
       </c>
       <c r="P25" t="n">
-        <v>400.3772524199291</v>
+        <v>296.2349713641977</v>
       </c>
       <c r="Q25" t="n">
-        <v>98.11302266017366</v>
+        <v>202.2553037159049</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.37658844897356</v>
+        <v>41.37658844897359</v>
       </c>
       <c r="J26" t="n">
         <v>533.4147165389984</v>
       </c>
       <c r="K26" t="n">
-        <v>214.747816587794</v>
+        <v>699.029719936471</v>
       </c>
       <c r="L26" t="n">
-        <v>272.4707631537311</v>
+        <v>272.4707631537312</v>
       </c>
       <c r="M26" t="n">
         <v>308.374489751202</v>
       </c>
       <c r="N26" t="n">
-        <v>314.1216284228587</v>
+        <v>314.1216284228589</v>
       </c>
       <c r="O26" t="n">
-        <v>294.4272776399223</v>
+        <v>294.4272776399224</v>
       </c>
       <c r="P26" t="n">
         <v>245.6238265795772</v>
       </c>
       <c r="Q26" t="n">
-        <v>507.051602602458</v>
+        <v>176.5461217565597</v>
       </c>
       <c r="R26" t="n">
-        <v>242.4527877778179</v>
+        <v>88.67636527503905</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.10668981082083</v>
+        <v>43.80093813850958</v>
       </c>
       <c r="J27" t="n">
-        <v>78.94144467260827</v>
+        <v>229.696039547892</v>
       </c>
       <c r="K27" t="n">
         <v>147.7519460061241</v>
@@ -36685,19 +36685,19 @@
         <v>243.889493744821</v>
       </c>
       <c r="N27" t="n">
-        <v>252.7095782807404</v>
+        <v>252.7095782807405</v>
       </c>
       <c r="O27" t="n">
         <v>227.5327046975036</v>
       </c>
       <c r="P27" t="n">
-        <v>460.4112488859365</v>
+        <v>179.441698324473</v>
       </c>
       <c r="Q27" t="n">
         <v>111.7582157525667</v>
       </c>
       <c r="R27" t="n">
-        <v>41.74957841413355</v>
+        <v>148.2702857726243</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,16 +36755,16 @@
         <v>120.528124960266</v>
       </c>
       <c r="K28" t="n">
-        <v>227.3079967636524</v>
+        <v>331.4502778193837</v>
       </c>
       <c r="L28" t="n">
-        <v>489.6088902361688</v>
+        <v>385.4666091804376</v>
       </c>
       <c r="M28" t="n">
         <v>533.6134586208558</v>
       </c>
       <c r="N28" t="n">
-        <v>516.4881917110249</v>
+        <v>516.488191711025</v>
       </c>
       <c r="O28" t="n">
         <v>483.8822790755312</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.37658844897356</v>
+        <v>41.37658844897359</v>
       </c>
       <c r="J29" t="n">
-        <v>137.7286370363457</v>
+        <v>358.4417580133765</v>
       </c>
       <c r="K29" t="n">
-        <v>214.747816587794</v>
+        <v>214.7478165877941</v>
       </c>
       <c r="L29" t="n">
-        <v>751.1022659510969</v>
+        <v>272.4707631537312</v>
       </c>
       <c r="M29" t="n">
         <v>308.374489751202</v>
       </c>
       <c r="N29" t="n">
-        <v>314.1216284228587</v>
+        <v>314.1216284228589</v>
       </c>
       <c r="O29" t="n">
-        <v>695.7637576938864</v>
+        <v>294.4272776399224</v>
       </c>
       <c r="P29" t="n">
-        <v>245.6238265795772</v>
+        <v>751.1022659510969</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.5461217565596</v>
+        <v>176.5461217565597</v>
       </c>
       <c r="R29" t="n">
-        <v>88.67636527503902</v>
+        <v>242.4527877778179</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>43.80093813850957</v>
+        <v>43.80093813850958</v>
       </c>
       <c r="J30" t="n">
-        <v>78.94144467260827</v>
+        <v>229.696039547892</v>
       </c>
       <c r="K30" t="n">
         <v>147.7519460061241</v>
@@ -36922,19 +36922,19 @@
         <v>243.889493744821</v>
       </c>
       <c r="N30" t="n">
-        <v>252.7095782807404</v>
+        <v>252.7095782807405</v>
       </c>
       <c r="O30" t="n">
-        <v>484.8080069312784</v>
+        <v>227.5327046975036</v>
       </c>
       <c r="P30" t="n">
-        <v>179.4416983244729</v>
+        <v>179.441698324473</v>
       </c>
       <c r="Q30" t="n">
         <v>111.7582157525667</v>
       </c>
       <c r="R30" t="n">
-        <v>41.74957841413355</v>
+        <v>148.2702857726243</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,16 +36992,16 @@
         <v>120.528124960266</v>
       </c>
       <c r="K31" t="n">
-        <v>227.3079967636524</v>
+        <v>331.4502778193837</v>
       </c>
       <c r="L31" t="n">
-        <v>489.6088902361688</v>
+        <v>489.6088902361689</v>
       </c>
       <c r="M31" t="n">
         <v>533.6134586208558</v>
       </c>
       <c r="N31" t="n">
-        <v>516.4881917110249</v>
+        <v>516.488191711025</v>
       </c>
       <c r="O31" t="n">
         <v>483.8822790755312</v>
@@ -37010,7 +37010,7 @@
         <v>400.3772524199291</v>
       </c>
       <c r="Q31" t="n">
-        <v>202.2553037159049</v>
+        <v>98.11302266017366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.37658844897356</v>
+        <v>41.37658844897359</v>
       </c>
       <c r="J32" t="n">
-        <v>367.1031192407197</v>
+        <v>385.2886945875305</v>
       </c>
       <c r="K32" t="n">
-        <v>214.747816587794</v>
+        <v>214.7478165877941</v>
       </c>
       <c r="L32" t="n">
-        <v>272.4707631537311</v>
+        <v>751.1022659510969</v>
       </c>
       <c r="M32" t="n">
         <v>308.374489751202</v>
       </c>
       <c r="N32" t="n">
-        <v>314.1216284228587</v>
+        <v>314.1216284228589</v>
       </c>
       <c r="O32" t="n">
-        <v>294.4272776399223</v>
+        <v>294.4272776399224</v>
       </c>
       <c r="P32" t="n">
         <v>245.6238265795772</v>
       </c>
       <c r="Q32" t="n">
-        <v>673.3631999007366</v>
+        <v>176.5461217565597</v>
       </c>
       <c r="R32" t="n">
         <v>242.4527877778179</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.10668981082083</v>
+        <v>43.80093813850958</v>
       </c>
       <c r="J33" t="n">
-        <v>78.94144467260827</v>
+        <v>229.696039547892</v>
       </c>
       <c r="K33" t="n">
         <v>147.7519460061241</v>
@@ -37159,19 +37159,19 @@
         <v>243.889493744821</v>
       </c>
       <c r="N33" t="n">
-        <v>252.7095782807404</v>
+        <v>252.7095782807405</v>
       </c>
       <c r="O33" t="n">
         <v>227.5327046975036</v>
       </c>
       <c r="P33" t="n">
-        <v>179.4416983244729</v>
+        <v>179.441698324473</v>
       </c>
       <c r="Q33" t="n">
-        <v>392.7277663140303</v>
+        <v>111.7582157525667</v>
       </c>
       <c r="R33" t="n">
-        <v>41.74957841413355</v>
+        <v>148.2702857726243</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,13 +37232,13 @@
         <v>331.4502778193837</v>
       </c>
       <c r="L34" t="n">
-        <v>489.6088902361688</v>
+        <v>489.6088902361689</v>
       </c>
       <c r="M34" t="n">
         <v>533.6134586208558</v>
       </c>
       <c r="N34" t="n">
-        <v>516.4881917110249</v>
+        <v>516.488191711025</v>
       </c>
       <c r="O34" t="n">
         <v>483.8822790755312</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.37658844897356</v>
+        <v>41.37658844897359</v>
       </c>
       <c r="J35" t="n">
         <v>137.7286370363457</v>
       </c>
       <c r="K35" t="n">
-        <v>214.747816587794</v>
+        <v>214.7478165877941</v>
       </c>
       <c r="L35" t="n">
-        <v>272.4707631537311</v>
+        <v>272.4707631537312</v>
       </c>
       <c r="M35" t="n">
         <v>308.374489751202</v>
       </c>
       <c r="N35" t="n">
-        <v>314.1216284228587</v>
+        <v>314.1216284228589</v>
       </c>
       <c r="O35" t="n">
-        <v>294.4272776399223</v>
+        <v>294.4272776399224</v>
       </c>
       <c r="P35" t="n">
         <v>245.6238265795772</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.5461217565596</v>
+        <v>176.5461217565597</v>
       </c>
       <c r="R35" t="n">
-        <v>88.67636527503902</v>
+        <v>88.67636527503934</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.10668981082083</v>
+        <v>43.80093813850958</v>
       </c>
       <c r="J36" t="n">
-        <v>78.94144467260827</v>
+        <v>229.696039547892</v>
       </c>
       <c r="K36" t="n">
         <v>147.7519460061241</v>
@@ -37396,16 +37396,16 @@
         <v>243.889493744821</v>
       </c>
       <c r="N36" t="n">
-        <v>252.7095782807404</v>
+        <v>252.7095782807405</v>
       </c>
       <c r="O36" t="n">
         <v>227.5327046975036</v>
       </c>
       <c r="P36" t="n">
-        <v>179.4416983244729</v>
+        <v>179.441698324473</v>
       </c>
       <c r="Q36" t="n">
-        <v>286.2070589555395</v>
+        <v>111.7582157525667</v>
       </c>
       <c r="R36" t="n">
         <v>148.2702857726243</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>120.528124960266</v>
+        <v>41.8193202650934</v>
       </c>
       <c r="K37" t="n">
-        <v>81.66986457289674</v>
+        <v>81.66986457289677</v>
       </c>
       <c r="L37" t="n">
-        <v>109.4180886289315</v>
+        <v>489.6088902361689</v>
       </c>
       <c r="M37" t="n">
-        <v>528.8654539554803</v>
+        <v>528.8654539554806</v>
       </c>
       <c r="N37" t="n">
-        <v>516.4881917110249</v>
+        <v>516.488191711025</v>
       </c>
       <c r="O37" t="n">
-        <v>450.4065928424258</v>
+        <v>301.8271185343002</v>
       </c>
       <c r="P37" t="n">
-        <v>84.46189426507286</v>
+        <v>84.46189426507289</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.2553037159049</v>
+        <v>49.35278111196644</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.37658844897356</v>
+        <v>41.37658844897359</v>
       </c>
       <c r="J38" t="n">
-        <v>137.7286370363457</v>
+        <v>137.7286370363459</v>
       </c>
       <c r="K38" t="n">
-        <v>214.747816587794</v>
+        <v>214.7478165877941</v>
       </c>
       <c r="L38" t="n">
-        <v>272.4707631537311</v>
+        <v>272.4707631537312</v>
       </c>
       <c r="M38" t="n">
         <v>308.374489751202</v>
       </c>
       <c r="N38" t="n">
-        <v>314.1216284228587</v>
+        <v>314.1216284228589</v>
       </c>
       <c r="O38" t="n">
-        <v>294.4272776399223</v>
+        <v>294.4272776399224</v>
       </c>
       <c r="P38" t="n">
         <v>245.6238265795772</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.5461217565596</v>
+        <v>176.5461217565597</v>
       </c>
       <c r="R38" t="n">
-        <v>88.67636527503902</v>
+        <v>88.67636527503905</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.10668981082083</v>
+        <v>43.80093813850958</v>
       </c>
       <c r="J39" t="n">
-        <v>359.9109952340719</v>
+        <v>229.696039547892</v>
       </c>
       <c r="K39" t="n">
         <v>147.7519460061241</v>
@@ -37633,19 +37633,19 @@
         <v>243.889493744821</v>
       </c>
       <c r="N39" t="n">
-        <v>252.7095782807404</v>
+        <v>252.7095782807405</v>
       </c>
       <c r="O39" t="n">
         <v>227.5327046975036</v>
       </c>
       <c r="P39" t="n">
-        <v>179.4416983244729</v>
+        <v>179.441698324473</v>
       </c>
       <c r="Q39" t="n">
         <v>111.7582157525667</v>
       </c>
       <c r="R39" t="n">
-        <v>41.74957841413355</v>
+        <v>148.2702857726243</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>120.528124960266</v>
+        <v>41.8193202650934</v>
       </c>
       <c r="K40" t="n">
-        <v>81.66986457289674</v>
+        <v>81.66986457289677</v>
       </c>
       <c r="L40" t="n">
-        <v>489.6088902361688</v>
+        <v>109.4180886289315</v>
       </c>
       <c r="M40" t="n">
-        <v>115.900852092753</v>
+        <v>411.0857368666304</v>
       </c>
       <c r="N40" t="n">
-        <v>352.7734701824917</v>
+        <v>516.488191711025</v>
       </c>
       <c r="O40" t="n">
         <v>483.8822790755312</v>
@@ -37721,7 +37721,7 @@
         <v>400.3772524199291</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.35278111196642</v>
+        <v>49.35278111196644</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.37658844897356</v>
+        <v>41.37658844897359</v>
       </c>
       <c r="J41" t="n">
         <v>137.7286370363457</v>
       </c>
       <c r="K41" t="n">
-        <v>214.747816587794</v>
+        <v>214.7478165877941</v>
       </c>
       <c r="L41" t="n">
-        <v>272.4707631537311</v>
+        <v>272.4707631537312</v>
       </c>
       <c r="M41" t="n">
         <v>308.374489751202</v>
       </c>
       <c r="N41" t="n">
-        <v>314.1216284228587</v>
+        <v>314.1216284228589</v>
       </c>
       <c r="O41" t="n">
-        <v>294.4272776399223</v>
+        <v>294.4272776399224</v>
       </c>
       <c r="P41" t="n">
         <v>245.6238265795772</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.5461217565596</v>
+        <v>176.5461217565597</v>
       </c>
       <c r="R41" t="n">
-        <v>88.67636527503902</v>
+        <v>88.67636527503905</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.10668981082083</v>
+        <v>43.80093813850958</v>
       </c>
       <c r="J42" t="n">
-        <v>78.94144467260827</v>
+        <v>229.696039547892</v>
       </c>
       <c r="K42" t="n">
         <v>147.7519460061241</v>
@@ -37870,13 +37870,13 @@
         <v>243.889493744821</v>
       </c>
       <c r="N42" t="n">
-        <v>252.7095782807404</v>
+        <v>252.7095782807405</v>
       </c>
       <c r="O42" t="n">
-        <v>401.9815479004764</v>
+        <v>227.5327046975036</v>
       </c>
       <c r="P42" t="n">
-        <v>179.4416983244729</v>
+        <v>179.441698324473</v>
       </c>
       <c r="Q42" t="n">
         <v>111.7582157525667</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>41.81932026509338</v>
+        <v>41.8193202650934</v>
       </c>
       <c r="K43" t="n">
-        <v>312.5793058943924</v>
+        <v>81.66986457289677</v>
       </c>
       <c r="L43" t="n">
-        <v>489.6088902361688</v>
+        <v>307.5537296949377</v>
       </c>
       <c r="M43" t="n">
-        <v>115.900852092753</v>
+        <v>528.8654539554806</v>
       </c>
       <c r="N43" t="n">
-        <v>516.4881917110249</v>
+        <v>516.488191711025</v>
       </c>
       <c r="O43" t="n">
         <v>483.8822790755312</v>
       </c>
       <c r="P43" t="n">
-        <v>84.46189426507286</v>
+        <v>84.46189426507289</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.35278111196642</v>
+        <v>49.35278111196644</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.37658844897356</v>
+        <v>41.37658844897359</v>
       </c>
       <c r="J44" t="n">
         <v>137.7286370363457</v>
       </c>
       <c r="K44" t="n">
-        <v>214.747816587794</v>
+        <v>214.7478165877943</v>
       </c>
       <c r="L44" t="n">
-        <v>272.4707631537311</v>
+        <v>272.4707631537312</v>
       </c>
       <c r="M44" t="n">
-        <v>308.3744897512017</v>
+        <v>308.374489751202</v>
       </c>
       <c r="N44" t="n">
-        <v>314.1216284228587</v>
+        <v>314.1216284228589</v>
       </c>
       <c r="O44" t="n">
-        <v>294.4272776399223</v>
+        <v>294.4272776399224</v>
       </c>
       <c r="P44" t="n">
         <v>245.6238265795772</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.5461217565596</v>
+        <v>176.5461217565597</v>
       </c>
       <c r="R44" t="n">
-        <v>88.67636527503902</v>
+        <v>88.67636527503905</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.10668981082083</v>
+        <v>43.80093813850958</v>
       </c>
       <c r="J45" t="n">
-        <v>78.94144467260827</v>
+        <v>229.696039547892</v>
       </c>
       <c r="K45" t="n">
         <v>147.7519460061241</v>
@@ -38107,16 +38107,16 @@
         <v>243.889493744821</v>
       </c>
       <c r="N45" t="n">
-        <v>252.7095782807404</v>
+        <v>252.7095782807405</v>
       </c>
       <c r="O45" t="n">
         <v>227.5327046975036</v>
       </c>
       <c r="P45" t="n">
-        <v>179.4416983244729</v>
+        <v>179.441698324473</v>
       </c>
       <c r="Q45" t="n">
-        <v>286.2070589555395</v>
+        <v>111.7582157525667</v>
       </c>
       <c r="R45" t="n">
         <v>148.2702857726243</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>120.528124960266</v>
+        <v>41.8193202650934</v>
       </c>
       <c r="K46" t="n">
-        <v>134.3322776009757</v>
+        <v>81.66986457289677</v>
       </c>
       <c r="L46" t="n">
-        <v>109.4180886289315</v>
+        <v>154.6512070909993</v>
       </c>
       <c r="M46" t="n">
-        <v>528.8654539554803</v>
+        <v>528.8654539554806</v>
       </c>
       <c r="N46" t="n">
-        <v>114.4347342949844</v>
+        <v>516.488191711025</v>
       </c>
       <c r="O46" t="n">
         <v>483.8822790755312</v>
       </c>
       <c r="P46" t="n">
-        <v>400.3772524199291</v>
+        <v>84.46189426507289</v>
       </c>
       <c r="Q46" t="n">
         <v>202.2553037159049</v>
